--- a/codeTesting/jupyternotebookCode/Feedback.xlsx
+++ b/codeTesting/jupyternotebookCode/Feedback.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\Final_Casestudy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\GitHub\Sentimental-analysis-of-Professor-Performance\codeTesting\jupyternotebookCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27A309D-6FC0-4073-94C6-DE17C764C7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140C96CB-09D0-4027-AA95-AC512D84CE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B9617122-E942-44A2-8247-F6FA08339F6C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="857">
   <si>
     <t>Label</t>
   </si>
@@ -2033,14 +2033,622 @@
   </si>
   <si>
     <t>a bad experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - The teacher's lesson plan was wonderful, engaging all the students effectively.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's explanation of the topic was terrible, leaving students confused.</t>
+  </si>
+  <si>
+    <t>The teacher's performance in the classroom was average, meeting expectations but not exceeding them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  The teacher's ability to connect with students was fantastic, creating a positive learning environment.</t>
+  </si>
+  <si>
+    <t>The teacher's classroom management skills were horrible, leading to constant disruptions.</t>
+  </si>
+  <si>
+    <t>The teacher's feedback on assignments was mediocre, lacking detailed insights.</t>
+  </si>
+  <si>
+    <t>The teacher's enthusiasm for the subject was excellent, inspiring students to learn more.</t>
+  </si>
+  <si>
+    <t>The teacher's use of technology in the classroom was awful, causing more confusion than clarity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's adherence to the curriculum was standard, following all the required guidelines.</t>
+  </si>
+  <si>
+    <t>The teacher's engagement with parents was great, fostering a supportive community.</t>
+  </si>
+  <si>
+    <t>The teacher's punctuality was bad, often arriving late to class.</t>
+  </si>
+  <si>
+    <t>The teacher's instructional methods were ordinary, not incorporating any innovative techniques.</t>
+  </si>
+  <si>
+    <t>The teacher's ability to motivate students was outstanding, leading to noticeable improvements</t>
+  </si>
+  <si>
+    <t>The teacher's handling of student questions was dreadful, often dismissing them without proper answers.</t>
+  </si>
+  <si>
+    <t>The teacher's preparation for lessons was moderate, adequate but not exceptional.</t>
+  </si>
+  <si>
+    <t>The teacher's dedication to student success was superb, going above and beyond to help them.</t>
+  </si>
+  <si>
+    <t>The teacher's attitude towards feedback was unpleasant, showing resistance to suggestions.</t>
+  </si>
+  <si>
+    <t>The teacher's performance in professional development sessions was neutral, participating but not actively contributing.</t>
+  </si>
+  <si>
+    <t>The teacher's creativity in lesson planning was amazing, making learning fun and interesting.</t>
+  </si>
+  <si>
+    <t>The teacher's approach to discipline was disgusting, often unfair and overly harsh.</t>
+  </si>
+  <si>
+    <t>The teacher's rapport with students was excellent, making them feel valued and understood.</t>
+  </si>
+  <si>
+    <t>The teacher's grading was inconsistent, which confused the students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's communication with parents was clear and effective.</t>
+  </si>
+  <si>
+    <t>The teacher's lesson structure was confusing and hard to follow</t>
+  </si>
+  <si>
+    <t>The teacher's ability to adapt to different learning styles was impressive.</t>
+  </si>
+  <si>
+    <t>The teacher's use of outdated materials was disappointing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's energy in the classroom was contagious, motivating students to participate.</t>
+  </si>
+  <si>
+    <t>The teacher's feedback was vague and not helpful.</t>
+  </si>
+  <si>
+    <t>The teacher's ability to manage time effectively was a strong point.</t>
+  </si>
+  <si>
+    <t>The teacher's explanations were often unclear, leading to misunderstandings.</t>
+  </si>
+  <si>
+    <t>The teacher's passion for teaching was evident and inspiring.</t>
+  </si>
+  <si>
+    <t>The teacher's lack of preparation was evident in the quality of lessons.</t>
+  </si>
+  <si>
+    <t>The teacher's collaborative efforts with colleagues were commendable.</t>
+  </si>
+  <si>
+    <t>The teacher's approach to homework was excessive and overwhelming.</t>
+  </si>
+  <si>
+    <t>The teacher's ability to make complex topics understandable was outstanding.</t>
+  </si>
+  <si>
+    <t>The teacher's negative attitude towards students was discouraging.</t>
+  </si>
+  <si>
+    <t>The teacher's use of interactive activities was very effective.</t>
+  </si>
+  <si>
+    <t>The teacher's reluctance to embrace new teaching methods was a drawback.</t>
+  </si>
+  <si>
+    <t>The teacher's patience with students was exceptional.</t>
+  </si>
+  <si>
+    <t>The teacher's strictness was often perceived as unfair.</t>
+  </si>
+  <si>
+    <t>The teacher's encouragement helped students build confidence.</t>
+  </si>
+  <si>
+    <t>The teacher's lack of engagement during lessons was noticeable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's organized approach to teaching was highly beneficial.</t>
+  </si>
+  <si>
+    <t>The teacher's frequent absences disrupted the learning process.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's willingness to stay after class for extra help was appreciated.</t>
+  </si>
+  <si>
+    <t>The teacher's disinterest in student input was disappointing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's consistent grading helped students understand their progress.</t>
+  </si>
+  <si>
+    <t>The teacher's monotone lectures made it hard to stay focused.</t>
+  </si>
+  <si>
+    <t>The teacher's enthusiasm for experiments made science class exciting.</t>
+  </si>
+  <si>
+    <t>The teacher's unfair treatment of students was unacceptable.</t>
+  </si>
+  <si>
+    <t>Ang lesson plan ni teacher ay sobrang ganda, talagang na-engage lahat ng students.</t>
+  </si>
+  <si>
+    <t>Ang explanation ni teacher sa topic ay sobrang sablay, nalito tuloy mga estudyante.</t>
+  </si>
+  <si>
+    <t>Yung performance ni teacher sa klase ay sakto lang, hindi sobrang galing pero okay na rin.</t>
+  </si>
+  <si>
+    <t>Ang galing ni teacher makipag-connect sa mga students, sobrang saya ng atmosphere sa klase.</t>
+  </si>
+  <si>
+    <t>Ang gulo ng classroom management ni teacher, lagi na lang may disturbance.</t>
+  </si>
+  <si>
+    <t>Yung feedback ni teacher sa assignments, parang walang kwenta, kulang sa detalye.</t>
+  </si>
+  <si>
+    <t>Ang saya ng teacher sa pagtuturo, nahawa tuloy mga estudyante sa enthusiasm niya.</t>
+  </si>
+  <si>
+    <t>Yung paggamit ni teacher ng technology sa klase, sobrang palpak, lalo tuloy nalito mga estudyante.</t>
+  </si>
+  <si>
+    <t>Sakto lang yung pagtuturo ni teacher sa kurikulum, tama lang naman lahat ng guidelines.</t>
+  </si>
+  <si>
+    <t>Ang active ni teacher sa pakikipag-communicate sa mga magulang, nakatulong para suportahan mga estudyante.</t>
+  </si>
+  <si>
+    <t>Laging late si teacher, nakakainis.</t>
+  </si>
+  <si>
+    <t>Wala masyadong bago sa pagtuturo ni teacher, parang usual lang.</t>
+  </si>
+  <si>
+    <t>Sobrang galing ni teacher mag-motivate ng students, ang dami nag-improve.</t>
+  </si>
+  <si>
+    <t>Parang walang kwenta yung pagsagot ni teacher sa mga tanong, minsan deadma lang.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yung paghahanda ni teacher para sa lessons, sakto lang, hindi sobrang special.</t>
+  </si>
+  <si>
+    <t>Sobrang dedicated si teacher sa success ng students, talagang todo effort siya.</t>
+  </si>
+  <si>
+    <t>Pag may feedback si teacher, minsan mainit ulo niya, hindi open sa suggestions.</t>
+  </si>
+  <si>
+    <t>Yung participation ni teacher sa mga training, sakto lang, hindi naman siya active.</t>
+  </si>
+  <si>
+    <t>Ang creative ni teacher sa mga lesson plan, ang saya tuloy ng klase.</t>
+  </si>
+  <si>
+    <t>Parang ang harsh ni teacher pagdating sa discipline, minsan hindi na fair.</t>
+  </si>
+  <si>
+    <t>Sobrang close ni teacher sa mga students, parang barkada lang.</t>
+  </si>
+  <si>
+    <t>Ang labo ng pagbibigay ng grades ni teacher, parang hindi consistent.</t>
+  </si>
+  <si>
+    <t>Clear at effective yung communication ni teacher sa parents.</t>
+  </si>
+  <si>
+    <t>Ang labo ng structure ng lessons ni teacher, hindi ko maintindihan.</t>
+  </si>
+  <si>
+    <t>Ang galing ni teacher mag-adjust sa iba't ibang learning styles.</t>
+  </si>
+  <si>
+    <t>Sobrang outdated ng materials ni teacher, nakakainis gamitin.</t>
+  </si>
+  <si>
+    <t>Ang taas ng energy ni teacher sa klase, nakakahawa yung enthusiasm niya.</t>
+  </si>
+  <si>
+    <t>Yung feedback ni teacher, sobrang vague, hindi nakakatulong.</t>
+  </si>
+  <si>
+    <t>Ang galing ni teacher mag-manage ng time, sakto lahat.</t>
+  </si>
+  <si>
+    <t>Parang laging unclear yung explanations ni teacher, ang daming nalilito.</t>
+  </si>
+  <si>
+    <t>Obvious na passionate si teacher sa pagtuturo, sobrang inspiring.</t>
+  </si>
+  <si>
+    <t>Kulang sa preparation si teacher, halatang hindi pinaghandaan.</t>
+  </si>
+  <si>
+    <t>Ang galing ni teacher makipag-collaborate sa mga co-teachers niya.</t>
+  </si>
+  <si>
+    <t>Parang sobra yung homework na binibigay ni teacher, nakakastress.</t>
+  </si>
+  <si>
+    <t>Ang galing ni teacher magpaliwanag ng complicated topics, sobrang naiintindihan namin.</t>
+  </si>
+  <si>
+    <t>Parang negative lagi si teacher, nakaka-discourage.</t>
+  </si>
+  <si>
+    <t>Sobrang effective yung interactive activities ni teacher.</t>
+  </si>
+  <si>
+    <t>Ayaw ni teacher mag-try ng new methods, parang luma na tuloy.</t>
+  </si>
+  <si>
+    <t>Sobrang patient ni teacher sa students, hindi siya nagmamadali.</t>
+  </si>
+  <si>
+    <t>Parang sobrang strict ni teacher, minsan unfair na.</t>
+  </si>
+  <si>
+    <t>Ang dami namin natutunan kay teacher, sobrang encouraging siya.</t>
+  </si>
+  <si>
+    <t>Parang wala sa mood si teacher magturo, halata na boring siya.</t>
+  </si>
+  <si>
+    <t>Sobrang organized ni teacher, ang dali tuloy mag-follow sa lessons.</t>
+  </si>
+  <si>
+    <t>Laging absent si teacher, nakaka-disrupt ng learning.</t>
+  </si>
+  <si>
+    <t>Si teacher willing mag-stay after class para magbigay ng extra help, sobrang appreciated namin.</t>
+  </si>
+  <si>
+    <t>Parang wala paki si teacher sa input ng students, nakakabigo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Consistent yung grading ni teacher, alam namin kung ano yung progress namin.</t>
+  </si>
+  <si>
+    <t>Sobrang monotone ng lectures ni teacher, nakakaantok.</t>
+  </si>
+  <si>
+    <t>Sobrang enthusiastic si teacher sa experiments, ang saya ng science class.</t>
+  </si>
+  <si>
+    <t>Parang hindi fair yung treatment ni teacher sa ibang students, nakakainis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's use of real-world examples was very effective in helping students understand the concepts.</t>
+  </si>
+  <si>
+    <t>The teacher's constant negativity was a real downer for the class.</t>
+  </si>
+  <si>
+    <t>The teacher's instructions were clear but not particularly engaging.</t>
+  </si>
+  <si>
+    <t>The teacher's supportive attitude really boosted the students' morale.</t>
+  </si>
+  <si>
+    <t>The teacher's favoritism was obvious and demotivating for other students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lectures were straightforward, though not very exciting.</t>
+  </si>
+  <si>
+    <t>The teacher's passion for the subject was contagious, making students eager to learn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's strict grading policy was discouraging.</t>
+  </si>
+  <si>
+    <t>The teacher's performance was consistent with expectations, neither outstanding nor lacking.</t>
+  </si>
+  <si>
+    <t>The teacher's innovative teaching methods were highly appreciated by the students.</t>
+  </si>
+  <si>
+    <t>The teacher's tendency to stick strictly to the book was boring</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's participation in extracurricular activities was okay, not very enthusiastic.</t>
+  </si>
+  <si>
+    <t>The teacher's encouragement of class discussions made the lessons lively.</t>
+  </si>
+  <si>
+    <t>The teacher's lack of empathy was disheartening for the students.</t>
+  </si>
+  <si>
+    <t>The teacher's overall performance was satisfactory but could use improvement.</t>
+  </si>
+  <si>
+    <t>The teacher's ability to handle difficult students was commendable.</t>
+  </si>
+  <si>
+    <t>The teacher's tendency to assign too much homework was overwhelming.</t>
+  </si>
+  <si>
+    <t>The teacher's involvement in school events was moderate.</t>
+  </si>
+  <si>
+    <t>The teacher's positive feedback motivated students to perform better.</t>
+  </si>
+  <si>
+    <t>The teacher's lack of enthusiasm was noticeable and uninspiring.</t>
+  </si>
+  <si>
+    <t>The teacher's teaching style was average, not particularly memorable.</t>
+  </si>
+  <si>
+    <t>The teacher's ability to simplify complex topics was a huge help.</t>
+  </si>
+  <si>
+    <t>The teacher's inconsistent attendance was frustrating.</t>
+  </si>
+  <si>
+    <t>The teacher's relationship with colleagues was professional but not particularly warm.</t>
+  </si>
+  <si>
+    <t>The teacher's creativity in assignments made learning fun.</t>
+  </si>
+  <si>
+    <t>The teacher's repetitive teaching methods were boring.</t>
+  </si>
+  <si>
+    <t>The teacher's overall performance was just fine, neither exceptional nor poor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's enthusiasm for projects inspired the students.</t>
+  </si>
+  <si>
+    <t>The teacher's dismissive attitude towards questions was discouraging.</t>
+  </si>
+  <si>
+    <t>The teacher's classroom activities were standard, nothing out of the ordinary.</t>
+  </si>
+  <si>
+    <t>The teacher's dedication to improving their teaching skills was impressive.</t>
+  </si>
+  <si>
+    <t>The teacher's harsh criticism was demotivating for students</t>
+  </si>
+  <si>
+    <t>The teacher's adherence to the curriculum was as expected.</t>
+  </si>
+  <si>
+    <t>The teacher's positive attitude created a welcoming classroom environment.</t>
+  </si>
+  <si>
+    <t>The teacher's lectures were monotonous and hard to follow.</t>
+  </si>
+  <si>
+    <t>The teacher's lesson delivery was okay, neither engaging nor boring.</t>
+  </si>
+  <si>
+    <t>The teacher's ability to inspire students was truly remarkable.</t>
+  </si>
+  <si>
+    <t>The teacher's unapproachable demeanor made students reluctant to ask for help.</t>
+  </si>
+  <si>
+    <t>The teacher's instructional methods were competent but unremarkable.</t>
+  </si>
+  <si>
+    <t>The teacher's commitment to student success was evident in their efforts.</t>
+  </si>
+  <si>
+    <t>The teacher's frequent scolding was demoralizing for the class.</t>
+  </si>
+  <si>
+    <t>The teacher's teaching methods were acceptable, meeting the basic requirements.</t>
+  </si>
+  <si>
+    <t>The teacher's energy and enthusiasm made the class enjoyable.</t>
+  </si>
+  <si>
+    <t>The teacher's lack of preparation for lessons was frustrating.</t>
+  </si>
+  <si>
+    <t>The teacher's performance was as expected, with no major issues.</t>
+  </si>
+  <si>
+    <t>The teacher's supportive nature helped build student confidence.</t>
+  </si>
+  <si>
+    <t>The teacher's tendency to lecture without interaction made classes dull.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's approach to grading was fair but unremarkable.</t>
+  </si>
+  <si>
+    <t>The teacher's hands-on activities made learning engaging and fun.</t>
+  </si>
+  <si>
+    <t>The teacher's favoritism created a negative classroom atmosphere.</t>
+  </si>
+  <si>
+    <t>Ang galing ni teacher magbigay ng real-world examples, madaling naiintindihan tuloy ng students.</t>
+  </si>
+  <si>
+    <t>Sobrang nega ni teacher, nakakawala ng gana sa klase.</t>
+  </si>
+  <si>
+    <t>Maayos naman yung instructions ni teacher, pero hindi ganun ka-engaging.</t>
+  </si>
+  <si>
+    <t>Ang supportive ni teacher, sobrang boost ng morale ng students.</t>
+  </si>
+  <si>
+    <t>Halatang may favoritism si teacher, nakakawala ng gana yung iba.</t>
+  </si>
+  <si>
+    <t>Sakto lang yung lectures ni teacher, diretso pero hindi masyadong exciting.</t>
+  </si>
+  <si>
+    <t>Ang galing ni teacher sa subject, nahawa tuloy mga estudyante sa eagerness niya.</t>
+  </si>
+  <si>
+    <t>Sobrang strict ng grading ni teacher, nakakababa ng loob.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Consistent naman performance ni teacher, hindi outstanding pero hindi rin kulang.</t>
+  </si>
+  <si>
+    <t>Ang innovative ng teaching methods ni teacher, na-appreciate ng students.</t>
+  </si>
+  <si>
+    <t>Parang laging stick to the book si teacher, sobrang boring.</t>
+  </si>
+  <si>
+    <t>Okay lang yung participation ni teacher sa extracurricular activities, hindi naman ganun ka-enthusiastic.</t>
+  </si>
+  <si>
+    <t>Ang saya ng class discussions dahil kay teacher.</t>
+  </si>
+  <si>
+    <t>Parang walang empathy si teacher, nakaka-dishearten sa students.</t>
+  </si>
+  <si>
+    <t>Satisfactory naman performance ni teacher, pero may room for improvement.</t>
+  </si>
+  <si>
+    <t>Ang galing ni teacher mag-handle ng difficult students.</t>
+  </si>
+  <si>
+    <t>Sobrang daming homework na binibigay ni teacher, nakaka-overwhelm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sakto lang involvement ni teacher sa school events.</t>
+  </si>
+  <si>
+    <t>Yung positive feedback ni teacher, sobrang nagmo-motivate sa students.</t>
+  </si>
+  <si>
+    <t>Parang walang gana si teacher, halata sa pagtuturo.</t>
+  </si>
+  <si>
+    <t>Average lang yung teaching style ni teacher, hindi masyadong memorable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sobrang laking tulong ni teacher sa pag-simplify ng complex topics.</t>
+  </si>
+  <si>
+    <t>Nakakainis yung inconsistent attendance ni teacher.</t>
+  </si>
+  <si>
+    <t>Professional naman yung relationship ni teacher sa colleagues, pero hindi ganun kainit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang creative ni teacher sa assignments, nagiging fun tuloy ang learning.</t>
+  </si>
+  <si>
+    <t>Paulit-ulit na teaching methods ni teacher, sobrang boring.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sakto lang performance ni teacher, hindi exceptional pero hindi rin poor.</t>
+  </si>
+  <si>
+    <t>Sobrang inspiring yung enthusiasm ni teacher sa projects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nakaka-discourage yung dismissive attitude ni teacher sa questions.</t>
+  </si>
+  <si>
+    <t>Standard lang yung classroom activities ni teacher, wala masyadong special.</t>
+  </si>
+  <si>
+    <t>Nakaka-impress yung dedication ni teacher sa pag-improve ng teaching skills niya.</t>
+  </si>
+  <si>
+    <t>Harsh masyado yung criticism ni teacher, nakaka-demotivate.</t>
+  </si>
+  <si>
+    <t>Sakto lang adherence ni teacher sa curriculum.</t>
+  </si>
+  <si>
+    <t>Ang positive ng attitude ni teacher, ang welcoming ng classroom environment.</t>
+  </si>
+  <si>
+    <t>Sobrang monotonous ng lectures ni teacher, mahirap sundan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Okay lang yung lesson delivery ni teacher, hindi engaging pero hindi rin boring.</t>
+  </si>
+  <si>
+    <t>Sobrang remarkable yung ability ni teacher mag-inspire ng students.</t>
+  </si>
+  <si>
+    <t>Parang hindi approachable si teacher, nahihiya tuloy magtanong mga students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Competent naman yung instructional methods ni teacher, pero unremarkable.</t>
+  </si>
+  <si>
+    <t>Halatang committed si teacher sa success ng students, sobrang effort siya.</t>
+  </si>
+  <si>
+    <t>Nakaka-demoralize yung frequent scolding ni teacher.</t>
+  </si>
+  <si>
+    <t>Acceptable naman yung teaching methods ni teacher, basic requirements lang.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sobrang saya ng class dahil sa energy at enthusiasm ni teacher.</t>
+  </si>
+  <si>
+    <t>Frustrating yung lack of preparation ni teacher sa lessons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sakto lang performance ni teacher, walang major issues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nakakatulong yung supportive nature ni teacher sa confidence ng students.</t>
+  </si>
+  <si>
+    <t>Sobrang dull ng classes dahil sa lecture lang ng lecture si teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fair naman yung grading ni teacher, pero unremarkable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sobrang engaging at fun yung hands-on activities ni teacher.</t>
+  </si>
+  <si>
+    <t>Nakaka-negative yung favoritism ni teacher, pangit ng atmosphere sa klase.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2068,11 +2676,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2091,9 +2700,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2131,7 +2740,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2237,7 +2846,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2379,7 +2988,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2387,10 +2996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1293A7B-3D13-40DC-A40C-FAABC8282D84}">
-  <dimension ref="A1:B1114"/>
+  <dimension ref="A1:B1314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1105" workbookViewId="0">
-      <selection activeCell="B1121" sqref="B1121"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="B213" sqref="B213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11311,6 +11920,1606 @@
         <v>656</v>
       </c>
     </row>
+    <row r="1115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1115" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1116" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1117" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1118" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1119" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1120" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1121" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1122" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1123" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1124" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1125" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1126" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1127" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1128" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1129" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1130" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1131" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1132" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1133" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1134" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1135" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1136" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1137" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1138" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1139" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1140" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1141" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1142" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1143" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1144" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1145" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1146" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1147" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1148" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1149" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1150" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1151" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1152" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1153" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1154" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1155" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1156" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1157" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1158" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1159" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1160" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1161" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1162" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1163" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1164" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1165" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1166" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1167" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1168" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1169" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1170" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1171" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1172" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1173" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1174" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1175" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1176" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1177" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1178" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1179" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1180" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1181" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1182" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1183" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1184" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1185" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1186" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1187" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1188" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1189" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1190" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1191" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1192" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1193" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1194" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1195" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1196" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1197" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1198" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1199" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1200" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1201" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1202" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1203" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1204" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1205" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1206" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1207" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1208" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1209" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1210" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1211" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1212" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1213" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1214" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1215" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1216" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1217" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1218" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1219" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1220" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1221" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1222" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1223" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1224" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1225" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1226" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1227" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1228" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1229" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1230" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1231" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1232" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1233" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1234" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1235" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1236" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1237" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1238" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1239" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1240" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1241" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1242" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1243" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1244" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1245" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1246" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1247" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1248" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1249" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1250" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1251" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1252" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1253" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1254" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1255" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1256" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1257" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1258" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1259" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1260" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1261" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1262" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1263" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1264" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1265" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1266" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1267" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1268" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1269" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1270" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1271" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1272" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1273" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1274" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1275" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1276" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1277" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1278" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1279" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1280" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1281" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1282" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1283" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1284" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1285" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1286" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1287" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1288" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1289" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1290" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1291" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1292" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1293" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1294" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1295" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1296" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1297" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1298" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1299" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1300" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1301" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1302" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1303" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1304" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1305" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1306" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1307" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1308" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1309" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1310" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1311" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1312" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1313" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1314" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>856</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/codeTesting/jupyternotebookCode/Feedback.xlsx
+++ b/codeTesting/jupyternotebookCode/Feedback.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wayan\Desktop\Sentimental-analysis-of-Professor-Performance\codeTesting\jupyternotebookCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BEED39-42C2-44F3-B2B9-F5897C37AC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169EC529-ABFD-4B6C-8BDB-BE67FFCD82CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11775" xr2:uid="{B9617122-E942-44A2-8247-F6FA08339F6C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B9617122-E942-44A2-8247-F6FA08339F6C}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="1177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="1188">
   <si>
     <t>Label</t>
   </si>
@@ -3593,6 +3593,39 @@
   </si>
   <si>
     <t>Super amazing ang overall experience sa klase niya.</t>
+  </si>
+  <si>
+    <t>Panget niya magturo eh</t>
+  </si>
+  <si>
+    <t>di siya nakakatuwa</t>
+  </si>
+  <si>
+    <t>di siya magaling magturo</t>
+  </si>
+  <si>
+    <t>di siya magaling magturo eh parang nagbabasa lang ba</t>
+  </si>
+  <si>
+    <t>idk parang monotonous lagi kasi boring and nagbabasa lang</t>
+  </si>
+  <si>
+    <t>panget ng way of teaching niya nakakaantok talaga</t>
+  </si>
+  <si>
+    <t>she's so nakakairita like always siyang nagpapagawa ng assignments</t>
+  </si>
+  <si>
+    <t>napakapanget ng ugali ni maam</t>
+  </si>
+  <si>
+    <t>di siya nagaaccept ng feedback  mula sa students feel niya lagi siyang tama kahit hindi</t>
+  </si>
+  <si>
+    <t>di naman siya magaling eh</t>
+  </si>
+  <si>
+    <t>di niya kami binibigyan ng enough time to do our schoolworks</t>
   </si>
 </sst>
 </file>
@@ -3969,10 +4002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1293A7B-3D13-40DC-A40C-FAABC8282D84}">
-  <dimension ref="A1:B1663"/>
+  <dimension ref="A1:B1674"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1304" workbookViewId="0">
-      <selection activeCell="B1311" sqref="B1311"/>
+    <sheetView tabSelected="1" topLeftCell="A1456" workbookViewId="0">
+      <selection activeCell="B1478" sqref="B1478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17285,6 +17318,94 @@
         <v>1176</v>
       </c>
     </row>
+    <row r="1664" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1664" s="4">
+        <v>-1</v>
+      </c>
+      <c r="B1664" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1665" s="4">
+        <v>-1</v>
+      </c>
+      <c r="B1665" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1666" s="4">
+        <v>-1</v>
+      </c>
+      <c r="B1666" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1667" s="4">
+        <v>-1</v>
+      </c>
+      <c r="B1667" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1668" s="4">
+        <v>-1</v>
+      </c>
+      <c r="B1668" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1669" s="4">
+        <v>-1</v>
+      </c>
+      <c r="B1669" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1670" s="4">
+        <v>-1</v>
+      </c>
+      <c r="B1670" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1671" s="4">
+        <v>-1</v>
+      </c>
+      <c r="B1671" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1672" s="4">
+        <v>-1</v>
+      </c>
+      <c r="B1672" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1673" s="4">
+        <v>-1</v>
+      </c>
+      <c r="B1673" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1674" s="4">
+        <v>-1</v>
+      </c>
+      <c r="B1674" t="s">
+        <v>1187</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/codeTesting/jupyternotebookCode/Feedback.xlsx
+++ b/codeTesting/jupyternotebookCode/Feedback.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\GitHub\Sentimental-analysis-of-Professor-Performance\codeTesting\jupyternotebookCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C64E929-4930-4C7F-A0C0-7DEE9DE22116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF94940E-9628-417E-BF7B-25A718CB6F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2016" yWindow="1008" windowWidth="17280" windowHeight="9072" xr2:uid="{B9617122-E942-44A2-8247-F6FA08339F6C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B9617122-E942-44A2-8247-F6FA08339F6C}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3174" uniqueCount="2519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4102" uniqueCount="3268">
   <si>
     <t>Label</t>
   </si>
@@ -7619,6 +7619,2253 @@
   </si>
   <si>
     <t xml:space="preserve"> The teacher’s lack of enthusiasm for the subject resulted in disengaged students.</t>
+  </si>
+  <si>
+    <t>The teacher does not explain the topics well.</t>
+  </si>
+  <si>
+    <t>The lessons are always boring.</t>
+  </si>
+  <si>
+    <t>The teacher is always late.</t>
+  </si>
+  <si>
+    <t>The teacher does not engage with the students.</t>
+  </si>
+  <si>
+    <t>The teacher's attitude is unprofessional.</t>
+  </si>
+  <si>
+    <t>The grading is unfair.</t>
+  </si>
+  <si>
+    <t>The teacher never answers questions clearly.</t>
+  </si>
+  <si>
+    <t>The teacher's feedback is not helpful.</t>
+  </si>
+  <si>
+    <t>The class is disorganized.</t>
+  </si>
+  <si>
+    <t>The teacher is often absent.</t>
+  </si>
+  <si>
+    <t>Hindi magaling magturo ang guro namin.</t>
+  </si>
+  <si>
+    <t>Laging boring ang klase namin.</t>
+  </si>
+  <si>
+    <t>Laging late ang guro.</t>
+  </si>
+  <si>
+    <t>Hindi nakikipag-engage ang guro sa mga estudyante.</t>
+  </si>
+  <si>
+    <t>Hindi maganda ang ugali ng guro.</t>
+  </si>
+  <si>
+    <t>Hindi patas ang pagbibigay ng grades.</t>
+  </si>
+  <si>
+    <t>Hindi malinaw sumagot ang guro sa mga tanong.</t>
+  </si>
+  <si>
+    <t>Hindi nakakatulong ang feedback ng guro.</t>
+  </si>
+  <si>
+    <t>Magulo ang klase.</t>
+  </si>
+  <si>
+    <t>Madalas wala ang guro.</t>
+  </si>
+  <si>
+    <t>Parang hindi alam ng teacher yung tinuturo niya.</t>
+  </si>
+  <si>
+    <t>Nakakaantok magturo si teacher.</t>
+  </si>
+  <si>
+    <t>Palaging late si teacher sa class.</t>
+  </si>
+  <si>
+    <t>Hindi nakikipag-engage si teacher sa students.</t>
+  </si>
+  <si>
+    <t>Ang rude ng teacher namin.</t>
+  </si>
+  <si>
+    <t>Unfair yung grading system niya.</t>
+  </si>
+  <si>
+    <t>Hindi maintindihan ang sagot ni teacher sa questions.</t>
+  </si>
+  <si>
+    <t>Hindi helpful yung feedback ni teacher.</t>
+  </si>
+  <si>
+    <t>Ang gulo ng class.</t>
+  </si>
+  <si>
+    <t>Laging absent si teacher.</t>
+  </si>
+  <si>
+    <t>The teacher ignores students' questions.</t>
+  </si>
+  <si>
+    <t>The teacher is unapproachable.</t>
+  </si>
+  <si>
+    <t>The teacher gives too much homework.</t>
+  </si>
+  <si>
+    <t>The teacher's instructions are confusing.</t>
+  </si>
+  <si>
+    <t>The teacher is often distracted during class.</t>
+  </si>
+  <si>
+    <t>The teacher doesn't return graded assignments on time.</t>
+  </si>
+  <si>
+    <t>The teacher is biased towards certain students.</t>
+  </si>
+  <si>
+    <t>The teacher's lectures are monotonous.</t>
+  </si>
+  <si>
+    <t>The teacher lacks classroom management skills.</t>
+  </si>
+  <si>
+    <t>The teacher's exams are too difficult.</t>
+  </si>
+  <si>
+    <t>Hindi pinapansin ng guro ang mga tanong ng estudyante.</t>
+  </si>
+  <si>
+    <t>Hindi madaling lapitan ang guro.</t>
+  </si>
+  <si>
+    <t>Sobrang dami ng binibigay na homework ng guro.</t>
+  </si>
+  <si>
+    <t>Nakakalito ang mga instruksyon ng guro.</t>
+  </si>
+  <si>
+    <t>Madaling madistract ang guro sa klase.</t>
+  </si>
+  <si>
+    <t>Hindi agad naibabalik ng guro ang graded assignments.</t>
+  </si>
+  <si>
+    <t>May pinapaboran ang guro na ilang estudyante.</t>
+  </si>
+  <si>
+    <t>Nakakainip ang mga lecture ng guro.</t>
+  </si>
+  <si>
+    <t>Walang disiplina ang guro sa klase.</t>
+  </si>
+  <si>
+    <t>Sobrang hirap ng mga exams ng guro.</t>
+  </si>
+  <si>
+    <t>Hindi pinapansin ni teacher yung questions ng students.</t>
+  </si>
+  <si>
+    <t>Hindi approachable si teacher.</t>
+  </si>
+  <si>
+    <t>Sobrang dami ng homework na binibigay ni teacher.</t>
+  </si>
+  <si>
+    <t>Confusing yung instructions ni teacher.</t>
+  </si>
+  <si>
+    <t>Madaling madistract si teacher during class.</t>
+  </si>
+  <si>
+    <t>Laging late ibalik ni teacher yung graded assignments.</t>
+  </si>
+  <si>
+    <t>May favoritism si teacher sa ibang students.</t>
+  </si>
+  <si>
+    <t>Monotonous yung lectures ni teacher.</t>
+  </si>
+  <si>
+    <t>Walang classroom management skills si teacher.</t>
+  </si>
+  <si>
+    <t>Sobrang hirap ng exams ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lack of respect for students' opinions was discouraging.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher often failed to provide sufficient explanations for difficult concepts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's attitude towards students was often indifferent and dismissive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lack of creativity in lessons led to student boredom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's frequent sarcasm created a hostile classroom atmosphere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lack of punctuality was disruptive to the class schedule.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's inability to manage time effectively led to rushed lessons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's constant negativity affected students' motivation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's refusal to answer questions was frustrating for students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's unorganized teaching style made learning difficult.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lack of engagement with the material was apparent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's failure to address student concerns was disappointing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's poor classroom management led to frequent disruptions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lack of enthusiasm for teaching was demotivating.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's grading was often arbitrary and unfair.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's feedback was often too vague to be useful.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lack of interest in student success was evident.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's negative comments often discouraged student participation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's failure to create an inclusive classroom environment was concerning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's inability to relate to students made learning difficult.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's refusal to incorporate student feedback was frustrating.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lack of clear objectives led to confusion about expectations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's dismissive attitude towards student ideas was demoralizing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's inflexible teaching style did not cater to diverse learners.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's failure to provide adequate support for assignments was problematic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's reluctance to embrace new technology hindered learning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lack of passion for the subject was evident.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's unapproachable demeanor made it difficult to seek help.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's constant interruptions disrupted the flow of lessons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's failure to engage with students on a personal level was disappointing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's harsh criticism often discouraged students from trying.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's inability to adapt to different learning styles was frustrating.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lack of support for struggling students was evident.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's poor communication skills made understanding assignments difficult.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's dismissive responses to questions were discouraging.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's failure to provide constructive feedback was problematic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's inability to maintain classroom discipline was disruptive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lack of preparation was evident in disorganized lessons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's reluctance to engage with students was disheartening.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's rigid approach to teaching stifled creativity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's failure to provide timely feedback hindered student progress.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's negative attitude towards students was evident.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lack of interaction with students made the class feel impersonal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's failure to provide adequate explanations was frustrating.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lack of enthusiasm made learning feel like a chore.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's dismissive attitude towards student concerns was troubling.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's frequent absences disrupted the continuity of lessons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's negative reinforcement methods were discouraging.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's poor organizational skills were evident in their teaching.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lack of effort in preparing lessons was apparent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's unapproachable nature made it difficult to ask for help.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's failure to engage with students was disappointing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's constant criticism affected student morale.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lack of creativity in teaching methods led to student disengagement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's failure to address disruptive behavior was problematic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's inability to relate to students made learning challenging.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's negative comments about student performance were demoralizing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's failure to provide clear instructions was frustrating.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lack of support for student learning was evident.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's dismissive attitude towards questions was discouraging.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's frequent use of sarcasm was unprofessional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's inability to manage classroom behavior was disruptive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lack of preparation for lessons was evident.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's negative attitude towards students was apparent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's reluctance to provide feedback was frustrating.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's failure to engage students in discussions was disappointing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's inability to adapt to student needs was problematic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lack of respect for student ideas was discouraging.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's frequent negativity affected the classroom atmosphere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's failure to inspire interest in the subject was evident.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's unapproachable demeanor made seeking help difficult.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's inability to provide clear explanations was frustrating.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's frequent criticism was demoralizing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lack of engagement with students was disheartening.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's inability to manage classroom disruptions was evident.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's constant interruptions during lessons were disruptive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's failure to create a positive learning environment was disappointing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's inability to relate to students' experiences was frustrating.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's negative comments about student work were discouraging.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's reluctance to adapt teaching methods was problematic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's failure to provide timely feedback was frustrating.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lack of enthusiasm for the subject was evident.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's dismissive attitude towards student questions was discouraging.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's frequent use of sarcasm created a hostile classroom atmosphere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lack of respect for student opinions was disheartening.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang guro ay madalas na huli sa klase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang mga paliwanag ng guro ay laging malabo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang guro ay hindi nagbibigay ng sapat na oras para sa tanong ng mga estudyante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang guro ay hindi nagpapakita ng interes sa pagtuturo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang mga aralin ng guro ay laging hindi handa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang guro ay hindi nagbibigay ng sapat na gabay sa mga proyekto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang guro ay madalas na mainit ang ulo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang guro ay hindi nagbibigay ng malinaw na instruksyon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang guro ay hindi marunong makinig sa opinyon ng mga estudyante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang guro ay madalas na nagiging dahilan ng kaguluhan sa klase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang guro ay hindi nagbibigay ng patas na grado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang guro ay hindi nagpapakita ng malasakit sa kalagayan ng mga estudyante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang guro ay laging gumagamit ng matandang materyales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang guro ay hindi nagpapaliwanag ng mabuti sa mga mahihirap na konsepto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang guro ay hindi nagbibigay ng sapat na feedback sa mga gawain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang guro ay madalas na nagiging dahilan ng pagkabagot sa klase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang guro ay hindi marunong magbigay ng inspirasyon sa mga estudyante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang guro ay hindi nagbibigay ng sapat na oras para sa konsultasyon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang guro ay hindi nagbibigay ng sapat na atensyon sa bawat estudyante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang guro ay laging mainit ang ulo kapag may tanong ang estudyante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang guro ay hindi nagbibigay ng sapat na suporta sa mga nangangailangan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang guro ay hindi nagpapakita ng interes sa mga tanong ng estudyante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang guro ay laging gumagamit ng paulit-ulit na metodo ng pagtuturo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang guro ay hindi nag-eengganyo ng aktibong partisipasyon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang guro ay madalas na hindi handa sa klase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang guro ay hindi marunong mag-adjust sa pangangailangan ng estudyante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang guro ay madalas na nawawala sa klase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang guro ay hindi nagbibigay ng sapat na oras para sa diskusyon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang guro ay hindi nagbibigay ng sapat na suporta sa mga proyekto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang guro ay laging gumagamit ng matandang mga halimbawa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang guro ay hindi nagbibigay ng malinaw na gabay sa mga gawain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang guro ay madalas na magagalitin kapag may tanong.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang guro ay hindi nagbibigay ng patas na pagtrato.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang guro ay hindi marunong magbigay ng inspirasyon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang guro ay laging gumagamit ng matandang metodo ng pagtuturo.</t>
+  </si>
+  <si>
+    <t>Yung teacher lagi nalang late sa klase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sobrang vague ng explanations ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi nagbibigay ng enough time si teacher para sa mga questions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mukhang wala talagang interest si teacher sa pagtuturo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi prepared si teacher palagi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Walang enough guidance si teacher sa mga projects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang init lagi ng ulo ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi clear magbigay ng instructions si teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi nakikinig si teacher sa opinions ng students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lagi nalang may kaguluhan sa klase dahil kay teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi fair magbigay ng grades si teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Walang pakialam si teacher sa kalagayan ng mga students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Matanda na masyado yung mga materials na ginagamit ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi marunong magpaliwanag si teacher sa mahihirap na topics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kulang sa feedback si teacher sa mga assignments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang boring ng klase dahil kay teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi marunong magbigay ng inspiration si teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi nagbibigay ng consultation time si teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Walang sapat na atensyon si teacher sa bawat estudyante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mainitin ang ulo ni teacher kapag tinatanong.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kulang sa support si teacher para sa mga nangangailangan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wala masyadong interest si teacher sa questions ng students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Puro paulit-ulit lang ang method ng pagtuturo ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi nage-engage ng active participation si teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lagi nalang hindi prepared si teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi marunong mag-adjust si teacher sa pangangailangan ng students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Madalas nawawala si teacher sa klase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kulang sa discussion time si teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Walang sapat na suporta si teacher sa mga projects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Luma na masyado yung mga examples ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi clear magbigay ng guidelines si teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lagi nalang galit si teacher kapag tinatanong.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Walang sapat na oras si teacher para sa consultation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi pantay-pantay ang trato ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Walang inspiration na binibigay si teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nakakabagot talaga ang klase dahil kay teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi nagbibigay ng sapat na support si teacher sa nangangailangan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Puro lumang method ang ginagamit ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Walang sapat na support si teacher sa projects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Puro luma na ang examples ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Madalas galit si teacher kapag tinatanong.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi pantay ang trato ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lectures were monotonous and hard to follow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher rarely showed enthusiasm for the subject.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's approach to teaching was outdated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher provided minimal guidance on assignments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher was often distracted during lectures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's grading system was inconsistent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher failed to engage the students in discussions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher rarely updated the course materials.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's expectations were unrealistic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher did not create an inclusive learning environment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lessons were not well-structured.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher was often unavailable for extra help.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's attitude towards students was often dismissive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher did not provide adequate support for struggling students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's instructions were frequently unclear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's feedback was often too critical.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lack of preparation was evident.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's use of technology was ineffective.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher did not foster a collaborative learning environment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's comments were often discouraging.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's classroom management was poor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's expectations were not communicated clearly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's methods were not conducive to learning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher rarely acknowledged student efforts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's assignments were often confusing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lectures lacked depth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's attitude was often condescending.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's explanations were often too rushed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher did not make the subject matter interesting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's grading was not transparent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lessons did not cater to different learning styles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher was often impatient with students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's teaching style was too rigid.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher did not encourage critical thinking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's assignments were often irrelevant.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's feedback was not constructive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lectures were often off-topic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher did not create a welcoming classroom atmosphere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's explanations were often contradictory.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's grading criteria were unclear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lessons were not engaging.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's attitude was often unprofessional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher did not adapt lessons to student needs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's assignments were too challenging.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's feedback was often negative.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher did not encourage student participation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's explanations were often inadequate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lectures were not interactive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher did not provide enough practice opportunities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lessons were poorly organized.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Madalas wala sa oras si teacher sa klase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi malinaw ang mga paliwanag ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Walang sigla magturo si teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi updated ang mga ginagamit na materyales ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kulang sa gabay si teacher sa mga estudyante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Madalas distracted si teacher sa klase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi consistent ang pag-grade ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi napapanatili ni teacher ang interes ng mga estudyante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Madalas hindi handa si teacher sa mga aralin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Walang konsiderasyon si teacher sa mga estudyanteng nahihirapan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi maayos ang sistema ng pagtuturo ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Madalas hindi available si teacher para sa tulong.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Madalas malamig ang trato ni teacher sa mga estudyante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi sapat ang suporta ni teacher sa mga estudyanteng nangangailangan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Malabo magbigay ng instructions si teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Madalas masyadong kritikal si teacher sa feedback.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Halatang hindi handa si teacher sa klase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi marunong gumamit ng teknolohiya si teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi maganda ang sistema ni teacher sa pagtutulungan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Madalas discouraging ang comments ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi maayos ang classroom management ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi klaro ang expectations ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi epektibo ang teaching methods ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Madalas hindi pinapansin ni teacher ang effort ng estudyante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nakakalito ang mga assignments ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kulang sa lalim ang mga lectures ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Madalas condescending si teacher sa mga estudyante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Masyadong mabilis magpaliwanag si teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi interesting ang mga topics ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi transparent ang grading system ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi akma sa iba't ibang learning styles ang mga lessons ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Madalas mainitin ang ulo ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Masyadong rigid ang teaching style ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi ini-encourage ni teacher ang critical thinking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi relevant ang mga assignments ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi constructive ang feedback ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Madalas off-topic ang lectures ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi welcoming ang atmosphere sa klase ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Magulo magpaliwanag si teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi klaro ang grading criteria ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi engaging ang mga lessons ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Madalas unprofessional si teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi marunong mag-adapt ng lessons si teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Masyadong mahirap ang mga assignments ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Madalas negative ang feedback ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi ini-encourage ni teacher ang participation ng estudyante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi sapat ang paliwanag ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi interactive ang lectures ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi sapat ang practice opportunities na binibigay ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi maayos ang pagkaka-organize ng mga lessons ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Laging late si teacher sa klase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi clear magpaliwanag si teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Walang energy si teacher sa pagtuturo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi updated ang materials ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kulang si teacher sa guidance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi consistent mag-grade si teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi engaging ang discussions ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Madalas hindi prepared si teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Walang consideration si teacher sa struggling students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi structured ang lessons ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Madalas unavailable si teacher for extra help.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dismissive si teacher sa students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi supportive si teacher sa students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vague ang instructions ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Masyadong critical si teacher sa feedback.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Halatang hindi prepared si teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ineffective ang use of technology ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi collaborative ang environment ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Discouraging ang comments ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Poor ang classroom management ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi clear ang expectations ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi effective ang methods ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi na-acknowledge ni teacher ang effort ng students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Confusing ang assignments ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kulang sa depth ang lectures ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Condescending si teacher sa students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Masyadong rushed ang explanations ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi interesting ang subject matter ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi transparent ang grading ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi catered sa iba't ibang learning styles ang lessons ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Impatient si teacher sa students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rigid ang teaching style ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Irrelevant ang assignments ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Off-topic ang lectures ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hindi welcoming ang classroom atmosphere ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Contradictory ang explanations ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Unclear ang grading criteria ni teacher.</t>
+  </si>
+  <si>
+    <t>The teacher follows the syllabus closely.</t>
+  </si>
+  <si>
+    <t>The class schedule is consistent.</t>
+  </si>
+  <si>
+    <t>The teacher uses standard teaching methods.</t>
+  </si>
+  <si>
+    <t>The teacher provides the necessary materials.</t>
+  </si>
+  <si>
+    <t>The classroom environment is average.</t>
+  </si>
+  <si>
+    <t>The teacher's pace is moderate.</t>
+  </si>
+  <si>
+    <t>The teacher's communication is clear.</t>
+  </si>
+  <si>
+    <t>The teacher's instructions are straightforward.</t>
+  </si>
+  <si>
+    <t>The teacher's grading criteria are defined.</t>
+  </si>
+  <si>
+    <t>The teacher maintains order in the classroom.</t>
+  </si>
+  <si>
+    <t>Sakto lang ang pagtuturo ng guro.</t>
+  </si>
+  <si>
+    <t>Consistent ang schedule ng klase.</t>
+  </si>
+  <si>
+    <t>Standard ang mga method ng pagtuturo.</t>
+  </si>
+  <si>
+    <t>Ibinibigay ng guro ang mga kailangan na materyales.</t>
+  </si>
+  <si>
+    <t>Okay lang ang classroom environment.</t>
+  </si>
+  <si>
+    <t>Moderate ang bilis ng pagtuturo ng guro.</t>
+  </si>
+  <si>
+    <t>Malinaw ang komunikasyon ng guro.</t>
+  </si>
+  <si>
+    <t>Direkta ang mga instruksyon ng guro.</t>
+  </si>
+  <si>
+    <t>Defined ang grading criteria ng guro.</t>
+  </si>
+  <si>
+    <t>Naayos ng guro ang kaayusan sa klase.</t>
+  </si>
+  <si>
+    <t>Okay lang yung teaching style niya, sakto lang.</t>
+  </si>
+  <si>
+    <t>Consistent yung class schedule.</t>
+  </si>
+  <si>
+    <t>Standard yung teaching methods niya.</t>
+  </si>
+  <si>
+    <t>Binibigay naman ni teacher lahat ng materials na kailangan.</t>
+  </si>
+  <si>
+    <t>Sakto lang yung classroom environment.</t>
+  </si>
+  <si>
+    <t>Moderate yung pace ng teaching.</t>
+  </si>
+  <si>
+    <t>Malinaw naman magsalita si teacher.</t>
+  </si>
+  <si>
+    <t>Straightforward yung instructions ni teacher.</t>
+  </si>
+  <si>
+    <t>Alam mo naman yung basis ng grading niya.</t>
+  </si>
+  <si>
+    <t>Na-maintain ni teacher yung order sa class.</t>
+  </si>
+  <si>
+    <t>The teacher follows a consistent teaching routine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher uses a standard grading system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The classroom is maintained at an average level of cleanliness.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher’s availability for extra help is moderate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher uses a mix of teaching aids.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher covers all the necessary topics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's feedback is somewhat helpful.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's punctuality is acceptable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's assignments are relevant.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher maintains a professional demeanor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> May consistent na routine ang pagtuturo ng guro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Standard ang grading system ng guro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Malinis naman ang classroom sa average na level.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Moderate ang availability ng guro para sa extra help.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> May mix ng teaching aids ang guro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Natatalakay ng guro ang lahat ng kailangang topics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Medyo nakakatulong ang feedback ng guro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sakto lang ang punctuality ng guro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Relevant ang mga assignments ng guro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Profesyonal ang ugali ng guro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> May consistent teaching routine si teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Standard yung grading system niya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Malinis naman yung classroom, sakto lang.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Moderate yung availability ni teacher for extra help.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> May mix ng teaching aids si teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Covered naman ni teacher lahat ng necessary topics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Medyo helpful yung feedback ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sakto lang yung punctuality ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Relevant naman yung assignments ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Professional si teacher sa classroom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher follows the curriculum as outlined by the school.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher maintains a consistent classroom routine each week.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher uses a mix of lectures, discussions, and group work in class.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher administers tests regularly to assess student progress.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher provides detailed notes and handouts for each lesson.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher holds office hours every week for students to ask questions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher assigns homework assignments to reinforce classroom learning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher uses a standard textbook for most lessons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher includes multimedia presentations in their lectures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher reviews the previous lesson at the start of each class.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher offers additional resources for students who need extra help.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher gives quizzes to check understanding of recent topics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher follows a set schedule for covering topics in the syllabus.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher encourages students to participate in classroom discussions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher provides clear instructions for assignments and projects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher uses both individual and group assignments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher grades assignments and tests in a timely manner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher keeps track of student attendance and participation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher uses visual aids to help explain complex topics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher updates grades and feedback regularly on the school portal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher schedules review sessions before exams.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher gives students time to work on assignments in class.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher uses classroom management techniques to maintain order.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher incorporates real-world examples into lessons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher responds to student emails and questions outside of class.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher encourages students to seek help when they need it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher provides study guides for major tests and exams.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher uses rubrics to grade projects and presentations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher incorporates feedback from students into their teaching.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher schedules parent-teacher conferences to discuss student progress.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher participates in professional development workshops.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher uses online platforms to share materials and assignments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher keeps the classroom environment organized and tidy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher starts and ends class on time each day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher assigns readings from a variety of sources.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher uses student performance data to inform instruction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher sets clear expectations for behavior in the classroom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher adjusts the pace of the lesson based on student understanding.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher provides opportunities for students to present their work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher uses technology to enhance teaching and learning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher participates in school meetings and committees.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher keeps up with current trends in education.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher organizes field trips that relate to the curriculum.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher encourages students to collaborate with their peers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher monitors student progress throughout the term.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher uses a variety of assessment methods to gauge understanding.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher provides feedback on assignments to help students improve.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher facilitates class discussions on relevant topics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher ensures all students have access to learning materials.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher uses questioning techniques to engage students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher schedules regular check-ins with students to discuss progress.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher adapts lessons to meet diverse learning needs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher creates a positive learning environment for all students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher communicates with parents about student performance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher sets academic goals with students at the start of the term.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher uses formative assessments to guide instruction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher incorporates student interests into lessons when possible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher attends school events and supports student activities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher provides enrichment opportunities for advanced students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher uses feedback to improve their teaching practice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher includes hands-on activities in lessons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher collaborates with colleagues to improve teaching strategies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher encourages students to think critically about subjects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher maintains professional relationships with students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher keeps a record of student progress and achievements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher uses scaffolding techniques to support student learning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher encourages students to ask questions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher monitors student attendance and participation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher provides opportunities for student presentations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher incorporates student interests into lessons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher collaborates with colleagues for better teaching strategies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher attends school events and activities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher provides enrichment activities for advanced learners.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher adapts lessons for diverse learning needs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher creates a supportive classroom environment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher keeps accurate records of student progress.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher provides feedback to help students improve.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si teacher ay laging ready sa lessons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher encourages collaboration among students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher maintains a respectful classroom atmosphere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher uses scaffolding techniques to support learning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher reviews lesson content regularly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher provides clear objectives for each lesson.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher incorporates feedback from students into lessons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher offers additional help for students after class.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher uses a variety of teaching aids in the classroom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si teacher ay may consistent na classroom management.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher encourages independent learning among students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher incorporates educational games into lessons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher uses data to inform teaching practices.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher schedules regular check-ins with students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher provides clear rubrics for grading assignments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher participates in ongoing professional development.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher uses interactive technology in lessons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher incorporates diverse perspectives in teaching.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher sets clear learning goals for students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher uses assessments to measure student progress.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher communicates effectively with parents.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher provides additional resources for students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher maintains a clean and organized classroom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher uses engaging methods to teach complex topics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher follows up with students on assignments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher provides structured lessons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher maintains consistency in teaching methods.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher integrates current events into lessons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher encourages respectful communication in class.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher uses multimedia to enhance lesson delivery.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher provides ample practice opportunities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher offers support for struggling students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher sets realistic deadlines for assignments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher uses real-world applications in lessons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher provides detailed feedback on student work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher updates students on their progress regularly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher encourages a growth mindset in students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher schedules additional review sessions before exams.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher creates a welcoming classroom environment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher provides a variety of learning materials.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher uses peer assessments to encourage collaboration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher sets high expectations for all students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher uses group work to enhance learning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher schedules regular student conferences.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher provides opportunities for self-assessment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher encourages creativity in assignments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher uses a mix of teaching styles to engage students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher provides real-time feedback during class.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher incorporates technology seamlessly into lessons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher sets a positive example for students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher uses collaborative tools for group projects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher maintains clear communication with students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher sets clear objectives for each unit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher uses rubrics to provide detailed feedback.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher encourages students to reflect on their learning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher provides opportunities for peer tutoring.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher schedules regular class discussions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher uses formative assessments to adjust teaching.</t>
+  </si>
+  <si>
+    <t>The teacher is very knowledgeable and makes the class interesting.</t>
+  </si>
+  <si>
+    <t>The teacher is always prepared and organized.</t>
+  </si>
+  <si>
+    <t>The teacher encourages student participation.</t>
+  </si>
+  <si>
+    <t>The teacher is very approachable and helpful.</t>
+  </si>
+  <si>
+    <t>The teacher explains the concepts clearly.</t>
+  </si>
+  <si>
+    <t>The lessons are engaging and interactive.</t>
+  </si>
+  <si>
+    <t>The teacher provides constructive feedback.</t>
+  </si>
+  <si>
+    <t>The teacher is passionate about the subject.</t>
+  </si>
+  <si>
+    <t>The teacher creates a positive learning environment.</t>
+  </si>
+  <si>
+    <t>The teacher's enthusiasm is contagious.</t>
+  </si>
+  <si>
+    <t>Ang galing ng guro namin, maraming natututunan sa kanya.</t>
+  </si>
+  <si>
+    <t>Laging handa at maayos ang guro.</t>
+  </si>
+  <si>
+    <t>Hinihikayat ng guro ang pakikilahok ng mga estudyante.</t>
+  </si>
+  <si>
+    <t>Madaling lapitan at matulungin ang guro.</t>
+  </si>
+  <si>
+    <t>Malinaw magpaliwanag ang guro.</t>
+  </si>
+  <si>
+    <t>Nakaka-engganyo ang mga aralin.</t>
+  </si>
+  <si>
+    <t>Nagbibigay ng konstruktibong feedback ang guro.</t>
+  </si>
+  <si>
+    <t>Passionate ang guro sa subject.</t>
+  </si>
+  <si>
+    <t>Lumikha ng positibong learning environment ang guro.</t>
+  </si>
+  <si>
+    <t>Nakakahawa ang sigla ng guro.</t>
+  </si>
+  <si>
+    <t>Sobrang galing ng teacher, very engaging siya sa lessons.</t>
+  </si>
+  <si>
+    <t>Laging prepared at organized si teacher.</t>
+  </si>
+  <si>
+    <t>Encouraging si teacher sa student participation.</t>
+  </si>
+  <si>
+    <t>Madaling lapitan si teacher at very helpful siya.</t>
+  </si>
+  <si>
+    <t>Very clear mag-explain si teacher.</t>
+  </si>
+  <si>
+    <t>Engaging and interactive yung lessons.</t>
+  </si>
+  <si>
+    <t>Constructive yung feedback na binibigay ni teacher.</t>
+  </si>
+  <si>
+    <t>Passionate si teacher sa subject niya.</t>
+  </si>
+  <si>
+    <t>Positive yung learning environment na ginagawa ni teacher.</t>
+  </si>
+  <si>
+    <t>Nakakahawa yung enthusiasm ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's enthusiasm is contagious, making every class exciting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Magaling magturo si teacher, lagi akong natututo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher creates a welcoming and inclusive classroom environment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's explanations are always clear and easy to understand.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sobrang patient si teacher sa mga tanong ng mga estudyante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher uses a variety of teaching methods to keep lessons interesting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher encourages every student to participate in class discussions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's feedback is always constructive and helpful.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang daming natutunan ko sa klase ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher is always prepared and organized for every lesson.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's positive attitude motivates students to do their best.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher makes complex topics understandable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Laging nakangiti si teacher at madaling lapitan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher inspires students to love learning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher recognizes and celebrates student achievements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang galing ni teacher mag-explain ng mga lessons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher creates a safe space for students to express themselves.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher uses technology effectively to enhance learning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lessons are always engaging and interactive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher shows genuine care and concern for students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang sipag at tiyaga ni teacher magturo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher fosters a positive and respectful classroom culture.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's passion for the subject is inspiring.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang saya lagi ng klase ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher provides ample opportunities for students to succeed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's creativity makes learning fun.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang daming activities na interesting sa klase ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher is always willing to help students after class.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher makes every student feel valued and important.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Napakagaling magturo ni teacher, laging may natutunan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher encourages students to think critically and independently.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher is a great role model for students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang bait at approachable ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lessons are always well-planned and executed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher creates a positive and energetic learning environment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Laging prepared si teacher sa bawat lesson.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's enthusiasm for teaching is evident in every class.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher helps students build confidence in their abilities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang saya mag-aral sa klase ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher uses real-world examples to make lessons relevant.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's kindness and patience are greatly appreciated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang galing ni teacher mag-inspire ng mga estudyante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's dedication to student success is remarkable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher creates a collaborative and supportive classroom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang dami kong natutunan kay teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher always provides clear and detailed explanations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher encourages students to strive for excellence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang ganda ng mga teaching strategies ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's positive feedback boosts student morale.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher promotes a growth mindset among students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Napaka-supportive ni teacher sa aming mga estudyante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher makes learning enjoyable and engaging.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lessons are always dynamic and thought-provoking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Laging may interesting na activities sa klase ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's commitment to education is inspiring.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher builds strong relationships with students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang saya-saya lagi ng klase ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's enthusiasm makes every class enjoyable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher provides excellent support and guidance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang husay ni teacher magturo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher fosters a love for learning in students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's feedback is always positive and encouraging.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Laging magaan ang loob ko sa klase ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher uses innovative methods to teach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher makes every student feel welcome and included.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang galing ni teacher mag-encourage sa amin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's dedication to teaching is truly admirable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher creates a positive and stimulating learning environment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang sipag ni teacher magturo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lessons are always well-organized and engaging.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher encourages students to pursue their passions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang ganda ng mga teaching methods ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher is always supportive and understanding.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher fosters a sense of community in the classroom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Laging magaling mag-explain si teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's enthusiasm for the subject is infectious.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher encourages students to take risks and learn from mistakes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang saya mag-aral dahil kay teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher provides a nurturing and supportive environment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's positive energy makes learning fun.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang galing ni teacher sa pagtuturo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lessons are always interesting and engaging.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher promotes a positive classroom culture.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Laging masaya sa klase ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher encourages students to be curious and ask questions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang bait ni teacher, laging handang tumulong.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher creates an inclusive and supportive learning environment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's passion for teaching is evident in every lesson.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Laging natututo ng bago sa klase ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher provides a variety of engaging learning activities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's positive attitude is inspiring.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang galing ni teacher mag-explain ng mga complicated topics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher fosters a positive and respectful classroom environment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher encourages students to take ownership of their learning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's enthusiasm makes learning enjoyable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher promotes critical thinking and creativity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang ganda ng mga lessons ni teacher, laging interesting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's dedication to student success is evident.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher makes complex subjects simple to understand.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si teacher ay laging magaling mag-motivate sa amin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's engaging teaching style makes every class enjoyable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher always makes time for student questions and concerns.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang saya lagi ng atmosphere sa klase ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's enthusiasm for the subject encourages students to learn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lessons are always well-structured and clear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang galing ni teacher sa pag-explain ng mga mahihirap na concepts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher fosters a collaborative and inclusive classroom environment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's positive reinforcement boosts student confidence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher creates a fun and interactive learning experience.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Napakagaling ni teacher sa pagtuturo ng mga lessons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher uses a variety of teaching techniques to keep students engaged.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's feedback is always timely and constructive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si teacher ay laging handang tumulong sa amin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher makes learning enjoyable and interesting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's dedication to student success is evident in every lesson.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang ganda ng mga strategies ni teacher sa pagtuturo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher promotes a positive and encouraging learning environment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's passion for teaching shines through in every class.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher always goes above and beyond for their students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si teacher ay laging nagbibigay ng magagandang feedback.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's enthusiasm makes learning exciting and fun.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lessons are always informative and engaging.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang saya ng klase ni teacher, laging may natutunan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher encourages students to think critically and creatively.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher creates a supportive and welcoming classroom environment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si teacher ay laging magaling magpaliwanag ng mga lessons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's dedication to their students is truly inspiring.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher makes complex topics easy to understand.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's positive attitude is contagious.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher provides a safe and inclusive learning environment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si teacher ay laging magaling magturo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lessons are always well-prepared and engaging.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher encourages students to be their best selves.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher fosters a love for learning in all students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's feedback is always helpful and constructive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher creates a positive and motivating classroom atmosphere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si teacher ay laging handang magturo at tumulong.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher promotes critical thinking and problem-solving skills.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lessons are always interesting and informative.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang bait ni teacher, laging handang tumulong sa mga estudyante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher encourages students to participate and engage in class.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's enthusiasm for the subject is inspiring.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher fosters a supportive and inclusive classroom environment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Laging maganda ang atmosphere sa klase ni teacher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's feedback is always detailed and helpful.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lessons are always engaging and thought-provoking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang galing ni teacher sa pag-motivate ng mga estudyante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher creates a fun and interactive learning environment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Napakagaling ni teacher magturo ng mga lessons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's enthusiasm makes every lesson enjoyable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher encourages students to ask questions and explore.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's lessons are always well-organized and clear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's positive reinforcement motivates students to excel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher promotes a positive and respectful classroom culture.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si teacher ay laging magaling magpaliwanag ng mga concepts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's feedback is always constructive and encouraging.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang saya lagi ng klase ni teacher, laging may natutunan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher encourages students to be curious and inquisitive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher creates a safe and supportive learning environment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si teacher ay laging magaling magturo ng mga lessons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's enthusiasm makes learning fun and exciting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's positive attitude is contagious and motivating.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher fosters a positive and inclusive classroom environment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ang galing ni teacher mag-explain ng mga mahihirap na topics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The teacher's positive energy makes learning enjoyable.</t>
   </si>
 </sst>
 </file>
@@ -7673,7 +9920,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7681,6 +9928,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7995,10 +10248,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1293A7B-3D13-40DC-A40C-FAABC8282D84}">
-  <dimension ref="A1:B3173"/>
+  <dimension ref="A1:B4101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2967" workbookViewId="0">
-      <selection activeCell="B2974" sqref="B2974"/>
+    <sheetView tabSelected="1" topLeftCell="B3869" workbookViewId="0">
+      <selection activeCell="B3872" sqref="B3872:B4101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33391,6 +35644,7430 @@
         <v>2518</v>
       </c>
     </row>
+    <row r="3174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3174" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3174" s="6" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3175" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3175" s="6" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3176" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3176" s="6" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3177" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3177" s="6" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3178" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3178" s="6" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3179" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3179" s="6" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3180" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3180" s="6" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3181" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3181" s="6" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3182" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3182" s="6" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3183" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3183" s="6" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3184" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3184" s="6" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3185" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3185" s="6" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3186" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3186" s="6" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3187" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3187" s="6" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3188" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3188" s="6" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3189" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3189" s="6" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3190" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3190" s="6" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3191" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3191" s="6" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3192" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3192" s="6" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3193" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3193" s="6" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3194" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3194" s="6" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3195" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3195" s="6" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3196" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3196" s="6" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3197" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3197" s="6" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3198" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3198" s="6" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3199" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3199" s="6" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3200" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3200" s="6" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3201" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3201" s="6" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3202" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3202" s="6" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3203" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3203" s="6" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3204" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3204" s="6" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3205" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3205" s="6" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3206" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3206" s="6" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3207" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3207" s="6" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3208" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3208" s="6" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3209" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3209" s="6" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3210" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3210" s="6" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3211" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3211" s="6" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3212" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3212" s="6" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3213" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3213" s="6" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3214" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3214" s="6" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3215" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3215" s="6" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3216" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3216" s="6" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3217" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3217" s="6" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="3218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3218" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3218" s="6" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="3219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3219" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3219" s="6" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="3220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3220" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3220" s="6" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="3221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3221" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3221" s="6" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="3222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3222" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3222" s="6" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="3223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3223" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3223" s="6" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="3224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3224" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3224" s="6" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="3225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3225" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3225" s="6" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="3226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3226" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3226" s="6" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="3227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3227" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3227" s="6" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="3228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3228" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3228" s="6" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="3229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3229" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3229" s="6" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="3230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3230" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3230" s="6" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="3231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3231" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3231" s="6" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="3232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3232" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3232" s="6" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="3233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3233" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3233" s="6" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="3234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3234" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3234" s="6" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="3235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3235" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3235" s="6" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="3236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3236" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3236" s="6" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="3237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3237" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3237" s="6" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="3238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3238" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3238" s="6" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="3239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3239" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3239" s="6" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="3240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3240" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3240" s="6" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="3241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3241" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3241" s="6" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="3242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3242" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3242" s="6" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="3243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3243" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3243" s="6" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="3244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3244" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3244" s="6" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="3245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3245" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3245" s="6" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="3246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3246" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3246" s="6" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="3247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3247" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3247" s="6" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="3248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3248" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3248" s="6" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="3249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3249" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3249" s="6" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="3250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3250" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3250" s="6" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="3251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3251" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3251" s="6" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="3252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3252" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3252" s="6" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="3253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3253" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3253" s="6" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="3254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3254" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3254" s="6" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="3255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3255" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3255" s="6" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="3256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3256" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3256" s="6" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="3257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3257" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3257" s="6" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="3258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3258" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3258" s="6" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="3259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3259" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3259" s="6" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="3260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3260" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3260" s="6" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="3261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3261" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3261" s="6" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="3262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3262" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3262" s="6" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="3263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3263" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3263" s="6" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="3264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3264" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3264" s="6" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="3265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3265" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3265" s="6" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="3266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3266" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3266" s="6" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="3267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3267" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3267" s="6" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="3268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3268" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3268" s="6" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="3269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3269" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3269" s="6" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="3270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3270" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3270" s="6" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="3271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3271" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3271" s="6" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="3272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3272" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3272" s="6" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="3273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3273" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3273" s="6" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="3274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3274" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3274" s="6" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="3275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3275" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3275" s="6" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="3276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3276" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3276" s="6" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="3277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3277" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3277" s="6" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="3278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3278" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3278" s="6" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="3279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3279" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3279" s="6" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="3280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3280" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3280" s="6" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="3281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3281" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3281" s="6" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="3282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3282" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3282" s="6" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="3283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3283" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3283" s="6" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="3284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3284" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3284" s="6" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="3285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3285" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3285" s="6" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="3286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3286" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3286" s="6" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="3287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3287" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3287" s="6" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="3288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3288" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3288" s="6" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="3289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3289" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3289" s="6" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="3290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3290" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3290" s="6" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="3291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3291" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3291" s="6" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="3292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3292" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3292" s="6" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="3293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3293" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3293" s="6" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="3294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3294" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3294" s="6" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="3295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3295" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3295" s="6" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="3296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3296" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3296" s="6" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="3297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3297" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3297" s="6" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="3298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3298" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3298" s="6" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="3299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3299" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3299" s="6" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="3300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3300" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3300" s="6" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="3301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3301" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3301" s="6" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="3302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3302" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3302" s="6" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="3303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3303" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3303" s="6" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="3304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3304" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3304" s="6" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="3305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3305" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3305" s="6" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="3306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3306" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3306" s="6" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="3307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3307" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3307" s="6" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="3308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3308" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3308" s="6" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="3309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3309" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3309" s="6" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="3310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3310" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3310" s="6" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="3311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3311" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3311" s="6" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="3312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3312" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3312" s="6" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="3313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3313" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3313" s="6" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="3314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3314" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3314" s="6" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="3315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3315" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3315" s="6" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="3316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3316" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3316" s="6" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="3317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3317" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3317" s="6" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="3318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3318" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3318" s="6" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="3319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3319" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3319" s="6" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="3320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3320" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3320" s="6" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="3321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3321" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3321" s="6" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="3322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3322" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3322" s="6" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="3323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3323" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3323" s="6" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="3324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3324" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3324" s="6" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="3325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3325" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3325" s="6" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="3326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3326" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3326" s="6" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="3327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3327" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3327" s="6" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="3328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3328" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3328" s="6" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="3329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3329" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3329" s="6" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="3330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3330" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3330" s="6" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="3331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3331" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3331" s="6" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="3332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3332" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3332" s="6" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="3333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3333" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3333" s="6" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="3334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3334" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3334" s="6" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="3335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3335" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3335" s="6" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="3336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3336" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3336" s="6" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="3337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3337" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3337" s="6" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="3338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3338" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3338" s="6" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="3339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3339" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3339" s="6" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="3340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3340" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3340" s="6" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="3341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3341" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3341" s="6" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="3342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3342" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3342" s="6" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="3343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3343" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3343" s="6" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="3344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3344" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3344" s="6" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="3345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3345" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3345" s="6" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="3346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3346" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3346" s="6" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="3347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3347" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3347" s="6" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="3348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3348" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3348" s="6" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="3349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3349" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3349" s="6" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="3350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3350" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3350" s="6" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="3351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3351" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3351" s="6" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="3352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3352" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3352" s="6" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="3353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3353" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3353" s="6" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="3354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3354" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3354" s="6" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="3355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3355" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3355" s="6" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="3356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3356" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3356" s="6" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="3357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3357" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3357" s="6" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="3358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3358" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3358" s="6" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="3359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3359" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3359" s="6" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="3360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3360" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3360" s="6" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="3361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3361" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3361" s="6" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="3362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3362" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3362" s="6" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="3363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3363" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3363" s="6" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="3364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3364" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3364" s="6" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="3365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3365" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3365" s="6" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="3366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3366" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3366" s="6" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="3367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3367" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3367" s="6" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="3368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3368" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3368" s="6" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="3369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3369" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3369" s="6" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="3370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3370" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3370" s="6" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="3371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3371" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3371" s="6" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="3372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3372" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3372" s="6" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="3373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3373" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3373" s="6" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="3374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3374" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3374" s="6" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="3375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3375" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3375" s="6" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="3376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3376" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3376" s="6" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="3377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3377" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3377" s="6" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="3378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3378" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3378" s="6" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="3379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3379" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3379" s="6" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="3380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3380" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3380" s="6" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="3381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3381" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3381" s="6" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="3382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3382" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3382" s="6" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="3383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3383" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3383" s="6" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="3384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3384" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3384" s="6" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="3385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3385" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3385" s="6" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="3386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3386" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3386" s="6" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="3387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3387" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3387" s="6" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="3388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3388" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3388" s="6" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="3389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3389" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3389" s="6" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="3390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3390" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3390" s="6" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="3391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3391" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3391" s="6" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="3392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3392" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3392" s="6" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="3393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3393" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3393" s="6" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="3394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3394" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3394" s="6" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="3395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3395" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3395" s="6" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="3396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3396" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3396" s="6" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="3397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3397" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3397" s="6" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="3398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3398" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3398" s="6" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="3399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3399" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3399" s="6" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="3400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3400" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3400" s="6" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="3401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3401" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3401" s="6" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="3402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3402" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3402" s="6" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="3403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3403" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3403" s="6" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="3404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3404" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3404" s="6" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="3405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3405" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3405" s="6" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="3406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3406" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3406" s="6" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="3407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3407" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3407" s="6" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="3408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3408" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3408" s="6" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="3409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3409" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3409" s="6" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="3410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3410" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3410" s="6" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="3411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3411" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3411" s="6" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="3412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3412" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3412" s="6" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="3413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3413" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3413" s="6" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="3414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3414" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3414" s="6" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="3415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3415" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3415" s="6" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="3416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3416" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3416" s="6" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="3417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3417" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3417" s="6" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="3418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3418" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3418" s="6" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="3419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3419" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3419" s="6" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="3420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3420" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3420" s="6" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="3421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3421" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3421" s="6" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="3422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3422" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3422" s="6" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="3423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3423" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3423" s="6" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="3424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3424" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3424" s="6" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="3425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3425" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3425" s="6" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="3426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3426" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3426" s="6" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="3427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3427" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3427" s="6" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="3428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3428" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3428" s="6" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="3429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3429" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3429" s="6" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="3430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3430" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3430" s="6" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="3431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3431" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3431" s="6" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="3432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3432" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3432" s="6" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="3433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3433" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3433" s="6" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="3434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3434" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3434" s="6" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="3435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3435" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3435" s="6" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="3436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3436" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3436" s="6" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="3437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3437" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3437" s="6" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="3438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3438" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3438" s="6" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="3439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3439" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3439" s="6" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="3440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3440" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3440" s="6" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="3441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3441" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3441" s="6" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="3442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3442" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3442" s="6" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="3443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3443" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3443" s="6" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="3444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3444" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3444" s="6" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="3445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3445" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3445" s="6" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="3446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3446" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3446" s="6" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="3447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3447" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3447" s="6" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="3448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3448" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3448" s="6" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="3449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3449" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3449" s="6" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="3450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3450" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3450" s="6" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="3451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3451" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3451" s="6" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="3452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3452" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3452" s="6" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="3453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3453" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3453" s="6" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="3454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3454" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3454" s="6" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="3455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3455" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3455" s="6" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="3456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3456" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3456" s="6" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="3457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3457" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3457" s="6" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="3458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3458" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3458" s="6" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="3459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3459" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3459" s="6" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="3460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3460" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3460" s="6" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="3461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3461" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3461" s="6" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="3462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3462" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3462" s="6" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="3463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3463" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3463" s="6" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="3464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3464" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3464" s="6" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="3465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3465" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3465" s="6" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="3466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3466" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3466" s="6" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="3467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3467" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3467" s="6" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="3468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3468" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3468" s="6" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="3469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3469" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3469" s="6" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="3470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3470" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3470" s="6" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="3471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3471" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3471" s="6" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="3472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3472" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3472" s="6" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="3473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3473" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3473" s="6" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="3474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3474" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3474" s="6" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="3475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3475" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3475" s="6" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="3476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3476" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3476" s="6" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="3477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3477" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3477" s="6" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="3478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3478" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3478" s="6" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="3479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3479" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3479" s="6" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="3480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3480" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3480" s="6" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="3481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3481" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3481" s="6" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="3482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3482" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3482" s="6" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="3483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3483" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3483" s="6" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="3484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3484" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3484" s="6" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="3485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3485" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3485" s="6" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="3486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3486" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3486" s="6" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="3487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3487" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3487" s="6" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="3488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3488" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3488" s="6" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="3489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3489" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3489" s="6" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="3490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3490" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3490" s="6" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="3491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3491" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3491" s="6" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="3492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3492" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3492" s="6" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="3493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3493" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3493" s="6" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="3494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3494" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3494" s="6" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="3495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3495" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3495" s="6" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="3496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3496" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3496" s="6" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="3497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3497" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3497" s="6" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="3498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3498" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3498" s="6" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="3499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3499" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3499" s="6" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="3500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3500" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3500" s="6" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="3501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3501" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3501" s="6" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="3502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3502" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3502" s="6" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="3503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3503" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3503" s="6" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="3504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3504" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3504" s="6" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="3505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3505" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3505" s="6" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="3506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3506" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3506" s="6" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="3507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3507" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3507" s="6" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="3508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3508" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3508" s="6" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="3509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3509" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3509" s="6" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="3510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3510" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3510" s="6" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="3511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3511" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3511" s="6" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="3512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3512" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3512" s="6" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="3513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3513" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3513" s="6" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="3514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3514" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3514" s="6" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="3515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3515" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3515" s="6" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="3516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3516" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3516" s="6" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="3517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3517" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3517" s="6" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="3518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3518" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3518" s="6" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="3519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3519" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3519" s="6" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="3520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3520" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3520" s="6" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="3521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3521" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3521" s="6" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="3522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3522" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3522" s="6" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="3523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3523" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3523" s="6" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="3524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3524" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3524" s="6" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="3525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3525" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3525" s="6" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="3526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3526" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3526" s="6" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="3527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3527" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3527" s="6" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="3528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3528" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3528" s="6" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="3529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3529" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3529" s="6" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="3530" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3530" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3530" s="6" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="3531" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3531" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3531" s="6" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="3532" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3532" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3532" s="6" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="3533" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3533" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3533" s="6" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="3534" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3534" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3534" s="6" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="3535" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3535" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3535" s="6" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="3536" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3536" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3536" s="6" t="s">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="3537" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3537" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3537" s="6" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="3538" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3538" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3538" s="6" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="3539" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3539" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3539" s="6" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="3540" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3540" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3540" s="6" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="3541" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3541" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3541" s="6" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="3542" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3542" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3542" s="6" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="3543" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3543" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3543" s="6" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="3544" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3544" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3544" s="6" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="3545" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3545" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3545" s="6" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="3546" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3546" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3546" s="6" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="3547" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3547" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3547" s="6" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="3548" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3548" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3548" s="6" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="3549" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3549" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3549" s="6" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="3550" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3550" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3550" s="6" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="3551" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3551" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3551" s="6" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="3552" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3552" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3552" s="6" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="3553" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3553" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3553" s="6" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="3554" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3554" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3554" s="6" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="3555" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3555" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3555" s="6" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="3556" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3556" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3556" s="6" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="3557" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3557" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3557" s="6" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="3558" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3558" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3558" s="6" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="3559" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3559" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3559" s="6" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="3560" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3560" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3560" s="6" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="3561" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3561" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3561" s="6" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="3562" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3562" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3562" s="6" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="3563" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3563" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3563" s="6" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="3564" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3564" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3564" s="6" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="3565" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3565" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3565" s="6" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="3566" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3566" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3566" s="6" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="3567" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3567" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3567" s="6" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="3568" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3568" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3568" s="6" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="3569" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3569" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3569" s="6" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="3570" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3570" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3570" s="6" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="3571" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3571" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3571" s="6" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="3572" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3572" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3572" s="6" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="3573" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3573" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3573" s="6" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="3574" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3574" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3574" s="6" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="3575" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3575" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3575" s="6" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="3576" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3576" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3576" s="6" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="3577" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3577" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3577" s="6" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="3578" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3578" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3578" s="6" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="3579" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3579" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3579" s="6" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="3580" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3580" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3580" s="6" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="3581" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3581" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3581" s="6" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="3582" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3582" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3582" s="6" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="3583" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3583" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3583" s="6" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="3584" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3584" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3584" s="6" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="3585" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3585" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3585" s="6" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="3586" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3586" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3586" s="6" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="3587" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3587" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3587" s="6" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="3588" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3588" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3588" s="6" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="3589" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3589" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3589" s="6" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="3590" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3590" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3590" s="6" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="3591" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3591" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3591" s="6" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="3592" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3592" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3592" s="6" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="3593" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3593" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3593" s="6" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="3594" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3594" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3594" s="6" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="3595" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3595" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3595" s="6" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="3596" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3596" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3596" s="6" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="3597" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3597" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3597" s="6" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="3598" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3598" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3598" s="6" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="3599" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3599" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3599" s="6" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="3600" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3600" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3600" s="6" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="3601" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3601" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3601" s="6" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="3602" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3602" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3602" s="6" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="3603" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3603" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3603" s="6" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="3604" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3604" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3604" s="6" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="3605" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3605" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3605" s="6" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="3606" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3606" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3606" s="6" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="3607" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3607" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3607" s="6" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="3608" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3608" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3608" s="6" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="3609" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3609" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3609" s="6" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="3610" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3610" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3610" s="6" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="3611" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3611" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3611" s="6" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="3612" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3612" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3612" s="6" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="3613" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3613" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3613" s="6" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="3614" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3614" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3614" s="6" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="3615" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3615" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3615" s="6" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="3616" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3616" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3616" s="6" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="3617" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3617" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3617" s="6" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="3618" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3618" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3618" s="6" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="3619" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3619" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3619" s="6" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="3620" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3620" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3620" s="6" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="3621" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3621" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3621" s="6" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="3622" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3622" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3622" s="6" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="3623" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3623" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3623" s="6" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="3624" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3624" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3624" s="6" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="3625" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3625" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3625" s="6" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="3626" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3626" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3626" s="6" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="3627" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3627" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3627" s="6" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="3628" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3628" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3628" s="6" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="3629" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3629" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3629" s="6" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="3630" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3630" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3630" s="6" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="3631" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3631" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3631" s="6" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="3632" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3632" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3632" s="6" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="3633" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3633" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3633" s="6" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="3634" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3634" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3634" s="6" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="3635" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3635" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3635" s="6" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="3636" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3636" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3636" s="6" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="3637" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3637" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3637" s="6" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="3638" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3638" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3638" s="6" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="3639" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3639" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3639" s="6" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="3640" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3640" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3640" s="6" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="3641" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3641" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3641" s="6" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="3642" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3642" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3642" s="6" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="3643" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3643" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3643" s="6" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="3644" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3644" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3644" s="6" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="3645" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3645" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3645" s="6" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="3646" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3646" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3646" s="6" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="3647" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3647" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3647" s="6" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="3648" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3648" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3648" s="6" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="3649" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3649" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3649" s="6" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="3650" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3650" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3650" s="6" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="3651" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3651" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3651" s="6" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="3652" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3652" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3652" s="6" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="3653" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3653" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3653" s="6" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="3654" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3654" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3654" s="6" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="3655" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3655" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3655" s="6" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="3656" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3656" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3656" s="6" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="3657" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3657" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3657" s="6" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="3658" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3658" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3658" s="6" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="3659" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3659" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3659" s="6" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="3660" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3660" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3660" s="6" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="3661" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3661" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3661" s="6" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="3662" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3662" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3662" s="6" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="3663" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3663" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3663" s="6" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="3664" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3664" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3664" s="6" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="3665" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3665" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3665" s="6" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="3666" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3666" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3666" s="6" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="3667" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3667" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3667" s="6" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="3668" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3668" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3668" s="6" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="3669" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3669" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3669" s="6" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="3670" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3670" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3670" s="6" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="3671" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3671" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3671" s="6" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="3672" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3672" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3672" s="6" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="3673" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3673" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B3673" s="6" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="3674" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3674" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3674" s="8" t="s">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="3675" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3675" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3675" s="8" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="3676" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3676" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3676" s="8" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="3677" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3677" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3677" s="8" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="3678" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3678" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3678" s="8" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="3679" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3679" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3679" s="8" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="3680" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3680" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3680" s="8" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="3681" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3681" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3681" s="8" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="3682" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3682" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3682" s="8" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="3683" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3683" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3683" s="8" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="3684" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3684" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3684" s="8" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="3685" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3685" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3685" s="8" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="3686" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3686" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3686" s="8" t="s">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="3687" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3687" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3687" s="8" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="3688" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3688" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3688" s="8" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="3689" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3689" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3689" s="8" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="3690" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3690" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3690" s="8" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="3691" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3691" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3691" s="8" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="3692" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3692" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3692" s="8" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="3693" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3693" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3693" s="8" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="3694" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3694" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3694" s="8" t="s">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="3695" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3695" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3695" s="8" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="3696" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3696" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3696" s="8" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="3697" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3697" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3697" s="8" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="3698" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3698" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3698" s="8" t="s">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="3699" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3699" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3699" s="8" t="s">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="3700" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3700" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3700" s="8" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="3701" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3701" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3701" s="8" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="3702" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3702" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3702" s="8" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="3703" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3703" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3703" s="8" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="3704" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3704" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3704" s="8" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="3705" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3705" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3705" s="8" t="s">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="3706" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3706" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3706" s="8" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="3707" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3707" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3707" s="8" t="s">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="3708" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3708" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3708" s="8" t="s">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="3709" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3709" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3709" s="8" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="3710" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3710" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3710" s="8" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="3711" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3711" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3711" s="8" t="s">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="3712" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3712" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3712" s="8" t="s">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="3713" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3713" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3713" s="8" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="3714" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3714" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3714" s="8" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="3715" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3715" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3715" s="8" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="3716" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3716" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3716" s="8" t="s">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="3717" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3717" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3717" s="8" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="3718" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3718" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3718" s="8" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="3719" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3719" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3719" s="8" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="3720" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3720" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3720" s="8" t="s">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="3721" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3721" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3721" s="8" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="3722" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3722" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3722" s="8" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="3723" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3723" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3723" s="8" t="s">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="3724" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3724" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3724" s="8" t="s">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="3725" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3725" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3725" s="8" t="s">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="3726" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3726" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3726" s="8" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="3727" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3727" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3727" s="8" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="3728" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3728" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3728" s="8" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="3729" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3729" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3729" s="8" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="3730" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3730" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3730" s="8" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="3731" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3731" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3731" s="8" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="3732" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3732" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3732" s="8" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="3733" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3733" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3733" s="8" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="3734" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3734" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3734" s="8" t="s">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="3735" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3735" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3735" s="8" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="3736" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3736" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3736" s="8" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="3737" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3737" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3737" s="8" t="s">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="3738" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3738" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3738" s="8" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="3739" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3739" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3739" s="8" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="3740" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3740" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3740" s="8" t="s">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="3741" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3741" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3741" s="8" t="s">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="3742" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3742" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3742" s="8" t="s">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="3743" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3743" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3743" s="8" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="3744" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3744" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3744" s="8" t="s">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="3745" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3745" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3745" s="8" t="s">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="3746" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3746" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3746" s="8" t="s">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="3747" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3747" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3747" s="8" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="3748" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3748" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3748" s="8" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="3749" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3749" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3749" s="8" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="3750" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3750" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3750" s="8" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="3751" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3751" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3751" s="8" t="s">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="3752" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3752" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3752" s="8" t="s">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="3753" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3753" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3753" s="8" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="3754" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3754" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3754" s="8" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="3755" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3755" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3755" s="8" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="3756" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3756" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3756" s="8" t="s">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="3757" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3757" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3757" s="8" t="s">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="3758" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3758" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3758" s="8" t="s">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="3759" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3759" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3759" s="8" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="3760" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3760" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3760" s="8" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="3761" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3761" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3761" s="8" t="s">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="3762" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3762" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3762" s="8" t="s">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="3763" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3763" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3763" s="8" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="3764" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3764" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3764" s="8" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="3765" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3765" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3765" s="8" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="3766" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3766" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3766" s="8" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="3767" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3767" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3767" s="8" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="3768" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3768" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3768" s="8" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="3769" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3769" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3769" s="8" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="3770" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3770" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3770" s="8" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="3771" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3771" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3771" s="8" t="s">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="3772" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3772" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3772" s="8" t="s">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="3773" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3773" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3773" s="8" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="3774" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3774" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3774" s="8" t="s">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="3775" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3775" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3775" s="8" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="3776" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3776" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3776" s="8" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="3777" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3777" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3777" s="8" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="3778" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3778" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3778" s="8" t="s">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="3779" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3779" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3779" s="8" t="s">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="3780" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3780" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3780" s="8" t="s">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="3781" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3781" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3781" s="8" t="s">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="3782" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3782" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3782" s="8" t="s">
+        <v>2986</v>
+      </c>
+    </row>
+    <row r="3783" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3783" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3783" s="8" t="s">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="3784" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3784" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3784" s="8" t="s">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="3785" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3785" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3785" s="8" t="s">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="3786" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3786" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3786" s="8" t="s">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="3787" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3787" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3787" s="8" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="3788" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3788" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3788" s="8" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="3789" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3789" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3789" s="8" t="s">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="3790" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3790" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3790" s="8" t="s">
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="3791" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3791" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3791" s="8" t="s">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="3792" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3792" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3792" s="8" t="s">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="3793" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3793" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3793" s="8" t="s">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="3794" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3794" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3794" s="8" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="3795" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3795" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3795" s="8" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="3796" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3796" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3796" s="8" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3797" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3797" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3797" s="8" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="3798" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3798" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3798" s="8" t="s">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="3799" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3799" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3799" s="8" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="3800" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3800" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3800" s="8" t="s">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="3801" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3801" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3801" s="8" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="3802" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3802" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3802" s="8" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="3803" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3803" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3803" s="8" t="s">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="3804" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3804" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3804" s="8" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="3805" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3805" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3805" s="8" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="3806" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3806" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3806" s="8" t="s">
+        <v>2986</v>
+      </c>
+    </row>
+    <row r="3807" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3807" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3807" s="8" t="s">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="3808" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3808" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3808" s="8" t="s">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="3809" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3809" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3809" s="8" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="3810" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3810" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3810" s="8" t="s">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="3811" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3811" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3811" s="8" t="s">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="3812" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3812" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3812" s="8" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="3813" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3813" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3813" s="8" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="3814" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3814" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3814" s="8" t="s">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="3815" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3815" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3815" s="8" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="3816" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3816" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3816" s="8" t="s">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="3817" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3817" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3817" s="8" t="s">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="3818" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3818" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3818" s="8" t="s">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="3819" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3819" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3819" s="8" t="s">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="3820" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3820" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3820" s="8" t="s">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="3821" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3821" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3821" s="8" t="s">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="3822" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3822" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3822" s="8" t="s">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="3823" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3823" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3823" s="8" t="s">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="3824" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3824" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3824" s="8" t="s">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="3825" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3825" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3825" s="8" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="3826" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3826" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3826" s="8" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="3827" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3827" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3827" s="8" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="3828" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3828" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3828" s="8" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="3829" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3829" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3829" s="8" t="s">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="3830" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3830" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3830" s="8" t="s">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="3831" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3831" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3831" s="8" t="s">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="3832" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3832" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3832" s="8" t="s">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="3833" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3833" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3833" s="8" t="s">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="3834" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3834" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3834" s="8" t="s">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="3835" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3835" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3835" s="8" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="3836" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3836" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3836" s="8" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="3837" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3837" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3837" s="8" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="3838" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3838" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3838" s="8" t="s">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="3839" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3839" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3839" s="8" t="s">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="3840" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3840" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3840" s="8" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="3841" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3841" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3841" s="8" t="s">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="3842" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3842" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3842" s="8" t="s">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="3843" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3843" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3843" s="8" t="s">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="3844" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3844" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3844" s="8" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="3845" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3845" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3845" s="8" t="s">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="3846" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3846" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3846" s="8" t="s">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="3847" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3847" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3847" s="8" t="s">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="3848" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3848" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3848" s="8" t="s">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="3849" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3849" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3849" s="8" t="s">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="3850" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3850" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3850" s="8" t="s">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="3851" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3851" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3851" s="8" t="s">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="3852" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3852" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3852" s="8" t="s">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="3853" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3853" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3853" s="8" t="s">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="3854" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3854" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3854" s="8" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="3855" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3855" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3855" s="8" t="s">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="3856" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3856" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3856" s="8" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="3857" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3857" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3857" s="8" t="s">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="3858" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3858" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3858" s="8" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="3859" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3859" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3859" s="8" t="s">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="3860" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3860" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3860" s="8" t="s">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="3861" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3861" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3861" s="8" t="s">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="3862" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3862" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3862" s="8" t="s">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="3863" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3863" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3863" s="8" t="s">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="3864" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3864" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3864" s="8" t="s">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="3865" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3865" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3865" s="8" t="s">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="3866" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3866" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3866" s="8" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="3867" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3867" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3867" s="8" t="s">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="3868" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3868" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3868" s="8" t="s">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="3869" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3869" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3869" s="8" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="3870" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3870" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3870" s="8" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="3871" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3871" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3871" s="8" t="s">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="3872" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3872" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3872" s="10" t="s">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="3873" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3873" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3873" s="10" t="s">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="3874" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3874" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3874" s="10" t="s">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="3875" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3875" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3875" s="10" t="s">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="3876" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3876" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3876" s="10" t="s">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="3877" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3877" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3877" s="10" t="s">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="3878" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3878" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3878" s="10" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="3879" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3879" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3879" s="10" t="s">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="3880" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3880" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3880" s="10" t="s">
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="3881" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3881" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3881" s="10" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="3882" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3882" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3882" s="10" t="s">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="3883" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3883" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3883" s="10" t="s">
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="3884" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3884" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3884" s="10" t="s">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="3885" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3885" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3885" s="10" t="s">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="3886" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3886" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3886" s="10" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="3887" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3887" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3887" s="10" t="s">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="3888" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3888" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3888" s="10" t="s">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="3889" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3889" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3889" s="10" t="s">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="3890" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3890" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3890" s="10" t="s">
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="3891" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3891" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3891" s="10" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="3892" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3892" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3892" s="10" t="s">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="3893" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3893" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3893" s="10" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="3894" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3894" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3894" s="10" t="s">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="3895" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3895" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3895" s="10" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="3896" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3896" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3896" s="10" t="s">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="3897" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3897" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3897" s="10" t="s">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="3898" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3898" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3898" s="10" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="3899" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3899" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3899" s="10" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="3900" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3900" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3900" s="10" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="3901" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3901" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3901" s="10" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="3902" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3902" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3902" s="10" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="3903" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3903" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3903" s="10" t="s">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="3904" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3904" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3904" s="10" t="s">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="3905" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3905" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3905" s="10" t="s">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="3906" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3906" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3906" s="10" t="s">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="3907" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3907" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3907" s="10" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="3908" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3908" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3908" s="10" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="3909" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3909" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3909" s="10" t="s">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="3910" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3910" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3910" s="10" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="3911" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3911" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3911" s="10" t="s">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="3912" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3912" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3912" s="10" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="3913" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3913" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3913" s="10" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="3914" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3914" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3914" s="10" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="3915" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3915" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3915" s="10" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="3916" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3916" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3916" s="10" t="s">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="3917" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3917" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3917" s="10" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="3918" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3918" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3918" s="10" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="3919" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3919" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3919" s="10" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="3920" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3920" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3920" s="10" t="s">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="3921" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3921" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3921" s="10" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="3922" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3922" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3922" s="10" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="3923" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3923" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3923" s="10" t="s">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="3924" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3924" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3924" s="10" t="s">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="3925" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3925" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3925" s="10" t="s">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="3926" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3926" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3926" s="10" t="s">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="3927" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3927" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3927" s="10" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="3928" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3928" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3928" s="10" t="s">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="3929" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3929" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3929" s="10" t="s">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="3930" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3930" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3930" s="10" t="s">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="3931" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3931" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3931" s="10" t="s">
+        <v>3132</v>
+      </c>
+    </row>
+    <row r="3932" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3932" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3932" s="10" t="s">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="3933" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3933" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3933" s="10" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="3934" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3934" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3934" s="10" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="3935" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3935" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3935" s="10" t="s">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="3936" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3936" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3936" s="10" t="s">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="3937" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3937" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3937" s="10" t="s">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="3938" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3938" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3938" s="10" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="3939" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3939" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3939" s="10" t="s">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="3940" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3940" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3940" s="10" t="s">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="3941" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3941" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3941" s="10" t="s">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="3942" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3942" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3942" s="10" t="s">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="3943" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3943" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3943" s="10" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="3944" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3944" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3944" s="10" t="s">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="3945" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3945" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3945" s="10" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="3946" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3946" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3946" s="10" t="s">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="3947" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3947" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3947" s="10" t="s">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="3948" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3948" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3948" s="10" t="s">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="3949" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3949" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3949" s="10" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="3950" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3950" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3950" s="10" t="s">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="3951" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3951" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3951" s="10" t="s">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="3952" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3952" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3952" s="10" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="3953" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3953" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3953" s="10" t="s">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="3954" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3954" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3954" s="10" t="s">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="3955" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3955" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3955" s="10" t="s">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="3956" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3956" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3956" s="10" t="s">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="3957" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3957" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3957" s="10" t="s">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="3958" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3958" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3958" s="10" t="s">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="3959" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3959" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3959" s="10" t="s">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="3960" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3960" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3960" s="10" t="s">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="3961" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3961" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3961" s="10" t="s">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="3962" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3962" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3962" s="10" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="3963" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3963" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3963" s="10" t="s">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="3964" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3964" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3964" s="10" t="s">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="3965" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3965" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3965" s="10" t="s">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="3966" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3966" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3966" s="10" t="s">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="3967" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3967" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3967" s="10" t="s">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="3968" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3968" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3968" s="10" t="s">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="3969" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3969" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3969" s="10" t="s">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="3970" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3970" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3970" s="10" t="s">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="3971" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3971" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3971" s="10" t="s">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="3972" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3972" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3972" s="10" t="s">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="3973" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3973" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3973" s="10" t="s">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="3974" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3974" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3974" s="10" t="s">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="3975" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3975" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3975" s="10" t="s">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="3976" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3976" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3976" s="10" t="s">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="3977" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3977" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3977" s="10" t="s">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="3978" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3978" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3978" s="10" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="3979" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3979" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3979" s="10" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="3980" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3980" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3980" s="10" t="s">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="3981" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3981" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3981" s="10" t="s">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="3982" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3982" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3982" s="10" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="3983" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3983" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3983" s="10" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="3984" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3984" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3984" s="10" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="3985" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3985" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3985" s="10" t="s">
+        <v>3186</v>
+      </c>
+    </row>
+    <row r="3986" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3986" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3986" s="10" t="s">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="3987" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3987" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3987" s="10" t="s">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="3988" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3988" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3988" s="10" t="s">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="3989" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3989" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3989" s="10" t="s">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="3990" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3990" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3990" s="10" t="s">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="3991" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3991" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3991" s="10" t="s">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="3992" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3992" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3992" s="10" t="s">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="3993" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3993" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3993" s="10" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="3994" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3994" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3994" s="10" t="s">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="3995" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3995" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3995" s="10" t="s">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="3996" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3996" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3996" s="10" t="s">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="3997" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3997" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3997" s="10" t="s">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="3998" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3998" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3998" s="10" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="3999" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3999" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3999" s="10" t="s">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="4000" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4000" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4000" s="10" t="s">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="4001" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4001" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4001" s="10" t="s">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="4002" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4002" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4002" s="10" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="4003" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4003" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4003" s="10" t="s">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="4004" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4004" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4004" s="10" t="s">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="4005" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4005" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4005" s="10" t="s">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="4006" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4006" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4006" s="10" t="s">
+        <v>3205</v>
+      </c>
+    </row>
+    <row r="4007" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4007" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4007" s="10" t="s">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="4008" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4008" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4008" s="10" t="s">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="4009" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4009" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4009" s="10" t="s">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="4010" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4010" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4010" s="10" t="s">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="4011" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4011" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4011" s="10" t="s">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="4012" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4012" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4012" s="10" t="s">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="4013" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4013" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4013" s="10" t="s">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="4014" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4014" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4014" s="10" t="s">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="4015" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4015" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4015" s="10" t="s">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="4016" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4016" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4016" s="10" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="4017" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4017" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4017" s="10" t="s">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="4018" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4018" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4018" s="10" t="s">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="4019" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4019" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4019" s="10" t="s">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="4020" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4020" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4020" s="10" t="s">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="4021" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4021" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4021" s="10" t="s">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="4022" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4022" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4022" s="10" t="s">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="4023" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4023" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4023" s="10" t="s">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="4024" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4024" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4024" s="10" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="4025" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4025" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4025" s="10" t="s">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="4026" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4026" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4026" s="10" t="s">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="4027" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4027" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4027" s="10" t="s">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="4028" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4028" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4028" s="10" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="4029" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4029" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4029" s="10" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="4030" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4030" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4030" s="10" t="s">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="4031" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4031" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4031" s="10" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="4032" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4032" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4032" s="10" t="s">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="4033" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4033" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4033" s="10" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="4034" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4034" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4034" s="10" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="4035" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4035" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4035" s="10" t="s">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="4036" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4036" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4036" s="10" t="s">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="4037" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4037" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4037" s="10" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="4038" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4038" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4038" s="10" t="s">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="4039" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4039" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4039" s="10" t="s">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="4040" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4040" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4040" s="10" t="s">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="4041" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4041" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4041" s="10" t="s">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="4042" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4042" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4042" s="10" t="s">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="4043" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4043" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4043" s="10" t="s">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="4044" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4044" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4044" s="10" t="s">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="4045" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4045" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4045" s="10" t="s">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="4046" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4046" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4046" s="10" t="s">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="4047" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4047" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4047" s="10" t="s">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="4048" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4048" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4048" s="10" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="4049" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4049" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4049" s="10" t="s">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="4050" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4050" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4050" s="10" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="4051" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4051" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4051" s="10" t="s">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="4052" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4052" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4052" s="10" t="s">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="4053" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4053" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4053" s="10" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="4054" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4054" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4054" s="10" t="s">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="4055" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4055" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4055" s="10" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="4056" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4056" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4056" s="10" t="s">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="4057" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4057" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4057" s="10" t="s">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="4058" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4058" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4058" s="10" t="s">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="4059" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4059" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4059" s="10" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="4060" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4060" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4060" s="10" t="s">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="4061" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4061" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4061" s="10" t="s">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="4062" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4062" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4062" s="10" t="s">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="4063" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4063" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4063" s="10" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="4064" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4064" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4064" s="10" t="s">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="4065" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4065" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4065" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="4066" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4066" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4066" s="10" t="s">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="4067" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4067" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4067" s="10" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="4068" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4068" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4068" s="10" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="4069" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4069" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4069" s="10" t="s">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="4070" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4070" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4070" s="10" t="s">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="4071" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4071" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4071" s="10" t="s">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="4072" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4072" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4072" s="10" t="s">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="4073" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4073" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4073" s="10" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="4074" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4074" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4074" s="10" t="s">
+        <v>3261</v>
+      </c>
+    </row>
+    <row r="4075" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4075" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4075" s="10" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="4076" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4076" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4076" s="10" t="s">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="4077" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4077" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4077" s="10" t="s">
+        <v>3263</v>
+      </c>
+    </row>
+    <row r="4078" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4078" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4078" s="10" t="s">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="4079" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4079" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4079" s="10" t="s">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="4080" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4080" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4080" s="10" t="s">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="4081" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4081" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4081" s="10" t="s">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="4082" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4082" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4082" s="10" t="s">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="4083" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4083" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4083" s="10" t="s">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="4084" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4084" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4084" s="10" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="4085" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4085" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4085" s="10" t="s">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="4086" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4086" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4086" s="10" t="s">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="4087" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4087" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4087" s="10" t="s">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="4088" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4088" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4088" s="10" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="4089" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4089" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4089" s="10" t="s">
+        <v>3267</v>
+      </c>
+    </row>
+    <row r="4090" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4090" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4090" s="10" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="4091" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4091" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4091" s="10" t="s">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="4092" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4092" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4092" s="10" t="s">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="4093" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4093" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4093" s="10" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="4094" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4094" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4094" s="10" t="s">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="4095" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4095" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4095" s="10" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="4096" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4096" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4096" s="10" t="s">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="4097" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4097" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4097" s="10" t="s">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="4098" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4098" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4098" s="10" t="s">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="4099" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4099" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4099" s="10" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="4100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4100" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4100" s="10" t="s">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="4101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4101" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4101" s="10" t="s">
+        <v>3252</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
